--- a/data/TOEFL Annotation_mine.xlsx
+++ b/data/TOEFL Annotation_mine.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -43,12 +43,6 @@
     <t>multi_mention</t>
   </si>
   <si>
-    <t>text_standard</t>
-  </si>
-  <si>
-    <t>essay</t>
-  </si>
-  <si>
     <t>flesch_reading_ease</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t>dale_chall_readability_score</t>
-  </si>
-  <si>
-    <t>textstat difficult words</t>
   </si>
   <si>
     <t>arc_length</t>
@@ -82,366 +73,10 @@
     <t>medium</t>
   </si>
   <si>
-    <t>147th and 148th grade</t>
-  </si>
-  <si>
-    <t>It is often said that advertising deceive pepole and creates needs .On one hand, I am going to see in what extent the advertising is able to influence us in our daily life ;then I will study how is it possible not to be deceived by this artificial world.On one hand ,it is true that the main role of the advertising is to create an ideal world where everything seems to be perferct .The puropse of advertisments is to improve sells of a certain firm .That is to say , when you see a beautiful woman on a billboard who seems to be so happy , you want to buy this make up to be beautiful and happy too .But when you buy it , you realize that your life has not changed at all .In fact in our societies of consumption , advertising has become a great way to influence people by showing them an ideal universe .In fact , most advertisments do not really sell products but they sell dream .The real purpose of most advertisments is to sell and not to reflect the realityof the product.On the other hand , I think that the advertising is not only a good way to increase sells but it is a kind of creativity .If the advertising is able to have such a great influence on people, it is because there is a real reflexion behind it .You always have posters with skin women, beautiful landscapes, and very efficient phrases.They are created to make you dream .And very often it works because in our modern societies , consumption is very important .Moreover ,I think that is to easy to say that advertising deceive you because you have to be able to see where is the fronteer between the fiction and the real .That is to say , people should develop their critical spirit by reading, listenning and watching the tv to create their own opinion.In that case , my point is that parents play a great role in their children education and they have to teach us what is true and what is not .To conclude ,I have to admitt that most advertisments make products seem much better than they really are but it is important to emphasize that it is also their first puropse.</t>
-  </si>
-  <si>
     <t>high</t>
   </si>
   <si>
-    <t>174th and 175th grade</t>
-  </si>
-  <si>
-    <t>In an age of mass production and consumption, manufacturers engage in a harsh competition to survive.The consumer wants to know that he is getting the most out of his investment and may rely on advertisements to decide which product would be the wisest purchase.It is then no surprise that when companies advertise their products, they focus on its benefits - perhaps exaggerating them - and rarely disclose its shortcomings.Advertisements of beauty products are a good example of this type of embellishment.The consumer wants a mascara that will lenghten, define, and thicken her eyelashes without making them appear clumped together.All cosmetic companies know this and, year after year, advertise a new mascara designed to do all this.Dramatic pictures shown on television or printed in magazines display its unique ability to thicken thicken, but never mention that this same technology also leads to a clumping or, worse, shedding of eyelashes.If the companies mentioned these side-effects, who would buy this revolutionary mascara?This scheme seems to be working, since the new formulas keep entering the market every year, and women are still buying them!Diet pills are also advertised as being much more effective and safer than truly are.The typical advertisement shows pictures of (pretended) consumers before and after using the miraculous product.Of course, the "after" pictures are always taken in a more flattering light, with the happy customer wearing better-fitting clothes and often sporting a tan.They are also digitally enhanced, to the point that one may come to doubt whether these people have even lost any weight or used the diet pills.In any case, the pictured consumers appear thinner, healthier, and happier.But do diet pills really bring about such formidable changes?Advertisers conveniently omit the need to balance diet and exercise in order to maintain a healthy weight and the customer is more than happy to purchase an easy solution.Just the same, the makers of these diet pills typically mention the possible side-effects in small print, while the numerous advantages of their products are spelled out in bright, bold letters.Finally, even if these diet pills are effective, the customer hoping to gain a better self-esteem and happiness may be very disappointed.After all this person has not changed his or her definition of personal worth along with a new, shapelier waist.In conclusion, manufacturers must resort to somewhat dishonest practices in order to sell their products.However, I don't believe this is done specifically to dupe the consumer, but simply as a matter of economic necessity.It remains the consumer's duty to understand this and to develop a more realistic understanding of what a product can and cannot do in order to critically examine an advertiser's claims</t>
-  </si>
-  <si>
-    <t>-1th and 0th grade</t>
-  </si>
-  <si>
-    <t>I do agree with the following statement that most advertisements make products seem much better than they really are.In our society, the use of advertisements is completely insane.The company tries to sell anything to the people and even if it not good for our health.The big companies uses differents ways to make the people buy their products and sometimes there are not very proper way.The goal of the companies it is to have a important benefit and they try to sell some products which can bring them a lot of money.An advertisements on TV is a fabulous possibilty to influence people to buy the products.A lot of color, a famous music, a famous people like Kate Moss can make the people change their mind about a product and make them buy it once they are in the supermaket.For example, a shampoo with the brand l'Oreal have a better chance to be buy than another shampoo which is not on tv.We are indue the influence of marketing and it is very hard to resist too such nice and new products because our favorite football player or actress wears or eats the products.In our minds, we think '' if she or he have it " it is certain that is a good product and that's why I should buy it''.However according to many studies and statistics, the products on the advertisements are not so good than they try to say.A lot of chemical ingredients can be hide inside a products.For instance, a sample chocolate bar like ''Lion'' bar contains a lot of  bad things which can really affect our bodies in the futur.For the moment, we cannot realize how bad it can be but one day it will occurs.Moreover, it is a fact that most of these products contains a lot of fat and are terrible for our health.As a result of the products, older people have heart attack, diabete, problem of obesity...
-To conclude, I reallu believe that the people have to be aware of the impact of the ad</t>
-  </si>
-  <si>
-    <t>12th and 13th grade</t>
-  </si>
-  <si>
-    <t>I strongly agree that advertisements make products  seem better.One should not be suprised by that because that is the goal of advertisement.In short, adverstisements want the consumer to buy the product whether or not he has a health benefit.What always come to mind is the advertisements for cigarettes.In much of these adverstisements, you see either a beautiful woman or hansome man and immediately you want identify with them.Therefore you want to imitate their acts, i.e.smoke.The other point about cigarettes advertisements is the "element of freedom".Most adverstisements show vast pieces of land or sea to suggest somekind of escape or adventure but it actually an illusion.The other type of advertisements that I would like to talk about is children snacks.On television the snacks looks very delicious and appetizing but in fact they have no nutritious value.Advertisers use bright colors, with catchy rythms to entice children to buy their products.When you look at the nutritional value of the product, you realised that it's full of saturated fat or even  trans fat.Kids love it because it tastes good.Some parents may like it because it's convenient to prepare it.The last point that I would like to make is commercial for cars.Everyday that you turn the television on, there is a new advertisement about a new car or the new model of an old car.You are constanly reminded to change you car even if you don't have too.What most people seems to ignore is that cars run on gasoline and we all know that cars are the biggest emitters of carbon dioxide (CO2).Most cars companies advertisements will not promote the use of public transportation to cut the emission of Carbon Dioxide in order to save Mother Nature.</t>
-  </si>
-  <si>
     <t>low</t>
-  </si>
-  <si>
-    <t>44th and 45th grade</t>
-  </si>
-  <si>
-    <t>To my mind, most advertisements make products seem much better than they really are.First, there are a lot of advertisements which lie.For exemple, for products to wach white tee shirt, ads says '' more white than white'' , which is impossible.Then, we discover there are a lot of liing advertisement when we try the product.When we buy a product to wash bath room, they don't wash alone althoug advevertisement say.finaly, we find a lot of advertisements for only one product.He is always new, but there are the same ingredients.If we mustn't be radical on this subject, we can say that most advertisements make products seem much better than they really are.</t>
-  </si>
-  <si>
-    <t>This statment illustrate the advertising policy issue whitch I personally agree with.First, in our society of "mass consommation", the economy is ruled by the profit implying that all measures are goods to increase benefits.Thus it is always a relevent manner to make seem a product better than he really is by a "lyar" advertisements.For example, MC Donnald always showes on adevertisement above the cashier better than they really are in their boxes when they are serviced.Secondly, the successfull of a product is to attract costumers.Whatesoever is the product, its advertissement have to appear better than the product is.Beasides, if the advertissement on the product is a "flop", the company who has lauched this one might lost a lot of money.Futhermore profit's policy that governs company's behaviour imply to make a product seem much better than it really is.Finally this behaviour has for result to create a fake image of the product in the customers minds.Thus creating a legal frame work on advertissement should prevent this kind of lying advertissements and protected, in the same time, custumers.</t>
-  </si>
-  <si>
-    <t>115th and 116th grade</t>
-  </si>
-  <si>
-    <t>the advertisements tell how good are the things , they tell sometimes good things or bad but always tell sometime interesting  some interesting because is like given you a warning for someting  that  cut be bad or good advertisements  tell you a thion that may get your atention because you may get in trouble or someting good for you wen you give and advertisements about watherver like  i have a dog in my house thaht can bite you if you get near ofd hin , he dont like no one bisys me im the onlee one that can toush the dog  the advertisement is that dont touch the dog if you dont want to get biteng fron hin.another way to make you an advertisement is to tell you to play the loto because there is an amount of mony that you can win  and the advertisements is to play the loto because you can  wijn a lot of mony ofg that in that way im telling you a bery good advertisement .in other way  another advertisement is to study for your cllas or for your test then you will have a bery good grades thats another  goood advertisement that you can tell someone  , that cain of advertisement dont heard you ,sow you can see that not all the advertisement are for a bad thing .advertisement is a way to tell what cut happent to you what you can dream whith , is the way to give you the oportunity to go on or stay ride therer , jest do what you need to do at the time to do it.eventhou they dont give the time to do it you jest need to use you common sens and by your self you will know what to do at the time you needed.</t>
-  </si>
-  <si>
-    <t>The big industries are famous, because generally their products are better than other products of small industries.I think that, the trayectory and the knowledge of the company permits to identify if any product is better than other.For example, I went to supermarket and I buy a unknow oil, because this was more cheap and I did not show big differences between my normal oil and this, but when I used this product I show that I loose my money, becuse this product had a less quality of my habitual oil.Therefore, I think to that there are famous companys, but this is not a garanteer for a good product.For example, currently a famous company of toys had problems with its toys, because the toys have a dangerous chemical; this toys industry is famous around in the world, but this is not complete garanteer for tha quality of the products.I agree with this idea: "Most advertisements me\ake products seem much better than really are" because the market is a war for the consummers.So, the quality of the products is determines for the people, I think that, the especialization in the production of the products helps to people know that product is better that other, because if the company only make a special product, the products will be more techniques and with less price than before.There are products better than others jus in appareance, but people should say which product is better when they obtain it, because it is better for their options in the market and in the habitual consummer, they have a social function too.</t>
-  </si>
-  <si>
-    <t>144th and 145th grade</t>
-  </si>
-  <si>
-    <t>I do agree that advertisements make products seem much better than they really are and with good purpose.The main focus of advertisements is to make it seem that the product is the best thing in the world, that it is  completely necessary and the most important of all, to sell the product to make profits which equals money.A good example of these reasons are: diet pill campaings and ads on television.They make ordinarily difficult goals to obtain, obtainable making it seem easy, fast and without breaking a sweat.First of all, they target the one thing humans are concerned about : their psychical beauty specifically lossing,gaining weight or being healthy.Todays men and women understand the importance of having a healthy body and being in shape for different reasons these being: health related issues such as heart disease, diabetes , morbid obesity , etc... and other more psychical reasons are: the stereotypes of being pretty and skinny in a judgemental society that trives on superficial beauty.Healthy bodies and weight loss come from: healthy eating habits, exercise and well organized planning.Diet pills advertisements make it seem as if you could skip all of these steps and still achieve your goal of a healthy shape and body, which in irony is not healthy or recommended by doctors because the risks are endless.Still people buy these products because they want to be the lovely young lady with the tight body or men want to be that guy with the washboard abs to feel good psychically and mentally.To understand how this operates we must look for the obvious reasons of why the product would seem much better.First of all , the image of expressing the easily unobtainable as obtainable is key in selling the product and therefore making more money and secondly when watching a television ad look for the little black paragraphs in which the truth about the product is stated and they don't want you to know quickly.This isn't a new practice every product will seem the best to make a profit out of it, but it is up to us to be educated and be informed about the product we hear or read about  to make a wise decision when purchasing it.</t>
-  </si>
-  <si>
-    <t>141st and 142nd grade</t>
-  </si>
-  <si>
-    <t>The advertisement world sometimes is bigger than the cuality of the products.I have to agree with the statement because the world now a days is based on consuming and selling as much as possiible.Fisrt everything comes first right in to the human eye, what looks atractive, new and original is always an eye catcher, and this has been proved, even I am a victim of those atractive things, is something comun and usual to find.As examples we have Coca Cola and Pepsi, is obvious they compit with each other and sometimes roughly, it is really a war.And here is easy to read a great advertisment campaing
-Second, becouse of the growth of the world and the technological advances poeple are more often expossed to advertisement, and competition has grown, so the only way of wining is by advertising anything, and as long as it sails is fine for any company who needs advertising.Is has been seen in the aspects of beauty,advertisemtn controls the worlds thoughts and minds, because of the amoo8ount and constant information they send, as an exapmle Abercrombie has this message of sexy and the the sailers are all good looking and grat bodys.And evidentiially all kind of people wanting this things go and buy there, is theyr way of sailing.Third because the people are been bombarded constantly by propaganda, now is not a competition betwen products is betwen the best advertising.So now the companys have to figure out how to catch the eye of at least one person, and sicceed with the porpouse states at the propaganda.But what became a tool, now created a silent war between products and companys that are competion.The best advertising wins; but this leaves sometimes a side the cuality of the products, in many occations we can find that you buy something because of the exterior nad it ends up been junk or a disaster or just what you were not expecting.As an example I bought a drink nad it looked good, delicious but the taste was extremely sweet nad gave a head ache.So in conclution even a fantastci advertisment can be junk or not really what they are selling.</t>
-  </si>
-  <si>
-    <t>135th and 136th grade</t>
-  </si>
-  <si>
-    <t>To me, the whole point of advertising is to sell, thus when advertising you should try to seduce the costumer.In fact there are many things or features of the product that you can use to do so, as the quality or the price, but always the main thing of show the good features over the bad ones.I agree with the idea that advertisements make products look better than they really are, but I don't see anything bad with it.Indeed, our freadom of speech ensures us mainly the right to say almost everything to everybody, with some exeptions of course, but under this perspective anyone could told us anything, in particular how good is the product they are offering.Most of the times, the advertisements do not lie or say anything strictly false, instead they focus on their strenghts.Therefore is true that the products looks better than they really are, but is not ill will on that.Indeed, it is the same thing you do when you go to a job interview, or try to approach some of the opposite sex for first time.Think about it, in these ocations you try to look good, seem confident, very capable, intelligent or even sexy, realice that you are trying to look better than you are.Although I consider that some exagerations should be avoided, becaouse they are not showing how good the product realy is, instead thay are a lie.For intance, see the all magical recipies, belts and all kind of crafts and offered to lose weight, everybody knows that is a lie.I think ths kind of things should be controlled by some costumer's agency, which should request some kind of survey or stadistics to support things that are stated on the advertising.Anyway, is in the costumer and the costumer's agencies who will at the end decide which product deserved an which does not, our trust.This is the only way of realy punnish tose that make reallly exagerated advertiments saying lies or said unproven things about their products.But always whitout attaking the fredom of speach or see things in a particular prespective.</t>
-  </si>
-  <si>
-    <t>112th and 113th grade</t>
-  </si>
-  <si>
-    <t>The influence of marketing in our societies  has been enormous in  the last  few years.The practice of publicity also has changed dramatically.From my point of view, companies exaggerate  the personalities of their products in an outlandish way.This is unfair  for the consumers who believe in the authenticity of the advertisement and the message that buyers are getting are not true.First, people most of the time are getting messages through the media that something is really well develop and  its quality is not comparable with nothing else.This is not right as people think that the message send to them is honest , thus they believe whatever they heard.This is like playing games with the people.Second, when people face reality, it is when they go to buy  an item, then they are realized that  what it is offering to them is not what they have shown  to them.Their reality come true as something  of very bad quality and the price ask for such item is awkfaully expensive.People realized that the message was just an scam in order to get their attention and then go to buy that good.Finally, people who use advertisements this way , they are very dishonest with their buyers.So , nowadays we have to be very careful about what  companies offer us in flayers, newspapers and TV.It is very easy to get someone attention offering the most wonderful and perfect items in the world, but it is what we are getting.Overall, people who advertise, they do not regards other people as soon as they will be able to obtain whatever they want.It is their final purpose, regardless the consequences.This is  a very popular way to get people.Thus , I agree with the above statement.</t>
-  </si>
-  <si>
-    <t>I believe that most of the products we see on tv or magazines are much better than they really are.Two years ago I bought a face cream I had seen on the television and it turned out to be a disaster.This kind of misrepresentations are really common in todays advertisement world because of the companies aim to sell more product and advertisement agencies way of being more attractive.The companies represent their products better since there is a  a lot of potential customers and they all want to take their shares in this large cake.These companies have great competition between themselves and they are ready to do everything even these things are unethical.Their way to sell more product is to show their products better and they can do this easily since there is no control over the kinds of misrepresentations.Besides the companies, the advertisement agencies show some products different than they really are.Since they are in the business to make people believe, they create some ideas or images which seem more attractive to the customers on the television while misrepresenting the product.While they are doing this untrue presentation, the companies do not prevent them since it is for their advantage.from this arrengement 
-In a conclusion, today most advertiments we see represent the better version of the product and there are still people who buys these product before searching the products really quality.I took my lesson two years ago and I hope everyone see the true faces of these companies and advertisers as soon as possible.This misrepresentation will continue as long as it goes until someone come and show the real faces of these companies and advertisement agencies to all world, but until that time I wonder `What is next`</t>
-  </si>
-  <si>
-    <t>I strongly agree the idea that most advertisements make products seem much better than they really are.TV, newspaper, internet, color and famous artist can be very tool for ads.First of all, TV and newspaper are very crucial tool for advertisements.For example we might watch TV at least one hour per day.This means that there is a possibility to see the ads on TV.They are just showing the products, we dont know anything about the quality of these things.They can hide everything on TV.Secondly, internet is a very powerful for every kind of advertisements.For instance, I was looking for an apartments to live in USA when I was in Turkey.Every apartments looked to me great from their web page.When I came here, I checked the apartments that I saw ads from the internet.Everything looks different.There was a noise on the floor while you are walking.We can see just a picture from the internet.We cannot realize every properties of apartments from the advertisements.Finally, advertisements are necessary for companies to sell their products.They would like to use different color and different famous person.Every people might have a favorite color, so they can be attracted by products.For example green color may attract muslim people, red might attract communist people.They would not know about the quality of products.Advertisements just gives us some idea about the physical appearance of products.We would not like to see every details of products from their pictures.</t>
-  </si>
-  <si>
-    <t>As a student majoring in bussiness management, i definitely know how important advertisement is in selling a product.However, this does not mean that advertisement increases the purchase in a right way.For example, it is not allways possible to find a product in the way that you saw in the advertisements, many times we find it worse than we thought.Thus is because the manufacturers tend to show  products' properties better than they actually are.First of all, it is common that most firms deceive people about the function of the product.They try to show that their products serve extreme performance.A very good example of this is slimming products, such as diet products.I want to express something that happened to me recently.In the television i saw the advertisement of a new product called "diet patch".It was stated in the advertising that after a person uses diet patch she would not feel hungry.Consequently, she would lose 5 kilos in two weeks.As soon as i saw this advertisement, i bought this product and started using it immediately.After two weeks, while dreaming of loosing five kilos, i could lose only one an half kilos although i did all the things that were said in the instructions including the diet.Secondly, in order to make customers buy their products, most of the firms demonstrate the appearence of the product extremely better than they actually are.The most common example of this is the advertisements that are related to summer holidays such as tour organizations or hotels.Last year we wanted to go to a hotel for our summer holiday.Thus, we searched the newspapers and among various hotels we decided to go to a hotel which has 2 swimming pools.The picture in the newspaper was so lovely that we could not think of any other hotel.But, after we went to the hotel it was a muddy pool.Finally, in order to pursue the customers the firms make advertisements that show their products better in ways such as changing  its fuctions and its appearance.</t>
-  </si>
-  <si>
-    <t>11th and 12th grade</t>
-  </si>
-  <si>
-    <t>IN NOWADAYS,PEOPLE BUY THE PRODUCTS BY ONLY LOOKING THE ADVERTISEMENTS.FIRSTLY,IN THOSE DAYS PEOPLE MOSTLY BUY TEH PRODUCTS BY THE INTERNET.INTERNET IS USEFUL FOR EVERYHTING,BUT YOU CAN ONLY SEE THE PICTURE OF PRODUCT ON THE INTERNET.YOU CAN NOT TOUCH OR YOU CAN NOT LOOK ALL THE PURPOSE OF THE PRODUCT.THUS,YOU JUST SEE THE ADVERTISEMENT SO YOU CAN BUY IT IF YOU LIKE THE ADVERTISEMENT.ON THE OTHER HAND,I WOULD LIKE TO GIVE AN EXAMPLE.IKEA IS VERY FAMOUS.BECAUSE YOU CAN FIND EVERYTHING IN IT AND ALSO IT IS VERY CHEAP.AND I LIKE THE ADVERTISEMENT OF IKEA.BUT WHEN I BUY A TABLE FROM IKEA,I WAS SHOCKED.BECAUSE IT IS SO BAD.I COULD ONLY USE THAT TABLE ONE MONTH.I THINK WHEN PEOPLE WANT TO BUY SOMETHING,THEY SHOULDN'T ONLY LOOK THE ADVERTISEMENT,THEY SHOUK INVESTIGATE THE PRODUCT TOO IF IT IS GOOD OR NOT.</t>
-  </si>
-  <si>
-    <t>45th and 46th grade</t>
-  </si>
-  <si>
-    <t>Recant advertisements world's   consists of marketing policies.Marketing polisies'  requarements  are based on ''sell everyting to your clients if they need or do not''.Therefore saler have to increase their sale amounts .So how can saler do that?As a way they must promote their product even they are not good.Sometimes they can say lie , sometimes they can make the people hopeful if they buy companies goods.And people even they are really not sure about the goods they want to buy them for something mistic or phsicolojical thing,
-Off course sienctists try to explain what lys behind this behaviour.Unfourtunatly , human nature  focused on consumer behaviour and big componies take advanteges from that.</t>
-  </si>
-  <si>
-    <t>I agree with the statement that most advertisements make products seem much better than they really are.I believe so because I have been exposed to many advertisements which after some time has been banned because of their unreliability and I have experienced many disappointments after buying a perfectly advertised product.Almost every product comes with beautiful and effective advertisements and for the first few weeks, many people pay for these products.However, after some time, organizations which are supposed to control the unfair use of advertisements ban the sales of that product in the markets due to wrong information given in the advertisements.To give a specific example, PO, which is one of the largest oil companies in Turkey, recently announced their new oil product which contains some agricultural wastes and products.The advertisements were great and every people owning a car, started preferring that company to buy the oil.This is mainly because they were told in the advertisements that the performance of their car would increase significantly with the use of that new product.However, after 3 weeks, the advertisements were banned from being shown in TV's, because PO couldn't prove the performance increase of the new oil.This was only one specific example and there are many other like this one which are caught by the controlling mechanisms as well as which cannot be caught.Another reason why I think that advertisements make products seem better than they really are is that I have experienced some disappointments with the products for which I was affected by their advertisements, To be more specific, I watch a movie by just looking at its advertisements.However this some of the times made me disappointed because the comments about the movie is generally exaggurated and one can never understand whether they are or not before watching the movie.I have read a lot of good comments on Keloglan movie's advertisements.The film was however disgusting.These two summarizes</t>
-  </si>
-  <si>
-    <t>I agree that most advertisements make products seems to be much more better than they really are concerning the material used and satisfaction to consumers.Useing a below average materials in some products and advertise it the best.For example, a hire dryer that will be bought and in the next day it is burned.The seacond reason is consumer satisfaction.Seeing an advertisment about a very comfortable and wonderfull car for example and when rideing it it's completlly the opposite.In conclusion, not all advertisements are true.It's all about selling there products in other words it's about mony.Consumers are the last in there tasks.</t>
-  </si>
-  <si>
-    <t>113th and 114th grade</t>
-  </si>
-  <si>
-    <t>Most advertisements make products seem much better than they really are.in fact, all over the world use this process.Here in my native country Lebanon, they show the product as a super thing and in fact, it is much less than it appears.first of all, i see wherever i go advertisements that make the products very good, and when i go to buy or see it, i find all the time that it is fake.The owner of the product always exagerates in the advertisements to attract the people.For example, i bought once a bike on the internet, the bike looked very nice and big and when they delivered it to me i found that it is a small and ugly bike.From every experience, i learn something till i found in the end that u cannot trust any advertisement and u have to see the product in front of you before you buy it.Furthermore, the product owners have to compete with each others, because there are a lot of factories that offer the same product.Also, the advertisement for the products have to look good to attract the eye.For example, once i saw different advertisements for the same product and one of them was really good and attractive, so i decided to go to the shop that made this advertisement and buy from it.Therefore the advertisement have to be good and the products should look much better than they really are to attract the buyer like they attracted me.In conclusion, the marketing for the product is very important, and the advertisement should be attractive.Therefore, the products seem much better than they really are.In addition to that, the buyer have to be mature enough to differentiate between products to buy the right thing.</t>
-  </si>
-  <si>
-    <t>I think that most advertismrnt do make a product seems batter then what they really are.for exampel,
-we see some products that will make you storng or even make you slim without any affort, and then affter useing it, we only find out that it was not true what ever the advrtisment says about that product.Another exmapel is in the advertisments that show us how simple it is to use a product and then, we find out affter getting it how complex it is  to use,or even the things we discove that they did not mantion in there advertisments it is like a fine print in a contract, you will only see it when it is too late
-this prblem had happend to most of us, one may always recall seeing something on televisson and then runing to the nearset shop to buy it, And then be supprised on how difrrent the product is from what he thught it will be.in this way more pepole will lose there trust and interest in advrtisments and the real good companys that puts good products in the market will lose alot of monye as pepole don't trust advetisments any more
-But on the othere hand some advetisments are not missleading and what thay show are ture, so it is really hard for us to tell the good and true advertisment form the bad.SO I think that what shloud be done is some orgnization that have to examen the products and see the advertisements for that product and comper if what thay see is the same of what thay have,
-in this way the consumer is protected as will as the good companys that really give what they show.now a day the best way to do things is to be true to otheres and not lie
-it is the best way to live whith each otheres.</t>
-  </si>
-  <si>
-    <t>86th and 87th grade</t>
-  </si>
-  <si>
-    <t>In my point of view, the mentinoed statement must get a lot of support and I personally agree with the statement saying that products are made to seem much better by advertising  than they really are.I belive this speaking from a personal experience.Once I bought a set of roller pens.The specifacations were that those pens wrote in a 0.7 but when I used them, they were not even 0.3.I think that the problem behind such an issue is the production company.Those companies try to make their products as attractive as they can in order to attract the most consumers.Those companies forget that once someone buys anything that does much less than it says, it will be returned to the retail selling agent, and the retail selling agent will in return return it to the company where many other items have been returned.The result of this is that the name of the company will not be mush in the market, and will have no future product under the same name.It could be that what they were after is temporar profits.If this is the case, they succeeded.So, exaggerating the product's description and the exaggeration in claiming that a certain product does certain things, while in  reality does not leads the consumers to think about and try the product before they buy it.</t>
-  </si>
-  <si>
-    <t>There are alot of way to advertisment the products for example the company can do it in TV, newspeaper and radio these are the most important mediea in this time.The most imporatant qusation is it is really the product look the same on TV or in news peaper or in the radio.I think some ads show the product for people oppisite of what they are for two reasons first they shoe all good stuuf in the product and they dont mention the bad things and secound some times they used some lies to sell their products.In the most ads the dont mention the bad things in the product they just show to the people how is it in a good way.Some of the statistic said that in 2002 there was alot of ads that show to the people the good things in the product and they forgot or they dont mention about the bad things and the descovered that the bad things in the product are more than the good things.Some of the ads use some lies so they can sell thier products for example they ask some people in the street about the product which is they are trying to sell and they but this conversation in the ads and before the make the conversation they deal with the person who is going to speak about the product or mabye this person working to the company.Also we dont have to forget the people and how the ads effected them and who they have to dominate thier mind about thinking more than one time pefore they take thier disagion.So some times they used some tricks so they can sell thier products in TV.The people who watch the TV alot some times they watch the ad and say it might be a good product.They started to ordered after the ad dirictlly and they dont asked about the company if it is famous or not and some of them beileve all the ads even if someone said to them this ad makes the product seem much better than they really are.Indeed some of the products seem much beteer than the really are by showing the good things in the product and ignor the bad things and they are using some lies to help them so they can sell thier products.</t>
-  </si>
-  <si>
-    <t>121st and 122nd grade</t>
-  </si>
-  <si>
-    <t>There is no doubt that advetisements specially today look much more attractive than the quality of the product itself.In my opinion this statement is correct .While many other people may have different opinion.From these people point of view,making good advetisement  can encourage people to at least try this product.So this product may be good and they buy it afterthat.But if the method of advertisement is not good and not interesting to people,this will lead to failure of the advertised product.So they see that the advertisement  must be better than the product at least till people try it as it's the first step for the product to succeed.In my opinion this is not correct advertisement for a definite thing ,but it's called cheating.The sincerety in advertisement must be considered for the general benefit.If the advertisement didn't reflect the actual properties of the product,this would lead to a bad reputation and so death of the product by time.In my life i have an example that makes me aggressive about these types of advertisement.For instance,one day there is an advertisement about new meter for measuring blood glucos level.They said that it's the most accurate one and its needle causes no pain at all,etc.....     .Then we bought it for my father who is diabetic .We started to use it and every time it gives good and exellent readings about sugar level.Suddenly ,one day my father dropped on the floor.When we picked him to the hospital we surprised about his sugar level which is very high .As a result it causd serious complications to him specially on heart.In a nut of shell,it's right when you say that the products are not really good as their advertisements introduce them.So,my advice is never to buy any new product except after it's thrown in the market for a longtime and was tried by many people.</t>
-  </si>
-  <si>
-    <t>13th and 14th grade</t>
-  </si>
-  <si>
-    <t>From the this question i would say, i strongly agree about most advertisements make products seem much better than they really are.theseday we can see advertising everywhere.so we can have effect by advertising but most products advertisements lie to us
-       First, advertiser want to sell product so they lie to us.most products seem really nice in the advertising.but It's not.because advertiser want to sell thier products so they make products seem much better in the advertisements.for example, fewdays ago i bought bulejean.i saw advertising from TV and jeans color is really nice.so i bought jean use the internet.but when i got a jean, color is different.they lie to me.second, advertiser get a money from the producter.so advertiser make famous advertisements in addition advertiser should lie to people because to sell products.and If product sell very much, his advertising will be famous.finally, from the this reason first, advertiser want to sell product so they lie to us, second , advertiser get a money from the producter.so</t>
-  </si>
-  <si>
-    <t>110th and 111th grade</t>
-  </si>
-  <si>
-    <t>Most advertisments makes product much better when you see the actual product, because when you see in the add you dont see the actull thing .They only show you the best of it.When you deside to buy it hten you fids that it is not as best it was said in the add,It is all a small game to make the coustomer buy the product.By making a coustomer buy the product, he/she most of the time forgets to return it back or desides to return it back after 30 days, it helps the marchant to sell the product by all means.The product which is mostly shown in commercial is not the best,I always thing the the product which you go to the shop and purchase is the best option.I have purchased several items from the advertisements,but most of dont look the same sa shown in tv, so all the time i have to make it a point to return in time so that i can get my money return.I thing the best way to buy any thing you should go and see the produt by your naked eyes and then deside you need to buy it or not.I thing that is the only best way to buy any things in life.The TV add things some of them are really good too, like i have purchased a Boss wave music it is the best, i like very much.Thaat was the only thing that i have purchased by add and turned out to be good.So i sugest that to buy mostly only by going to the shop and seeing the things by yourself, It is very important to see the things and then you can deside to buy or not.</t>
-  </si>
-  <si>
-    <t>Nowadays everything has to be nice, new, good looking and usefull.These are important qualities which have to fullfill every product to be interesting for us.So it is ok that many advertisements make products better than they are?Well in my opinion it's absolutly ok but maybe I have to say this.At the moment I'm studying mediadesign in Berlin.For that reason I have to learn and develop ways to make products more interesting for people.Of course perhaps it is a little bit wrong but I think that people learn to see advertising in the right light today.I had a professor who told us that he had to do some pictures of a fried piece of fish and it looked terrible the whole time.So he solved the problem by taking a piece of wood with preparations which made it look like the fish.Equally important is the fact that people only want to see some beautiful things and not every product is beautiful - maybe usefull but not beautiful.So how would you present maybe diet - products?Would you show a fat lady with the nice and new product or would you try to get a supermodel who is convinced that she was only able to get this body through the new product.I think not a really difficult question.Of course I can understand the people who say that they don't want to buy something and find out later that it's not so good how it was said in the commercial break.But in this case I think that this is their fault.You can't say that advertising agencies should not present products better than they are in the future.In my opinion every business have to do their job as good as possible.All in all I have to say that advertising is good and neccessary for many businesses that's way I choose to study it.This is a growing part of</t>
-  </si>
-  <si>
-    <t>I think that almost every advertisment makes the product it supports better than it actually is.There are three main reasons for this opinion.Firstly the main use of advertisment is to sell the product.The second reason is that if for example contracts are advertised there are mostly printed or shown on screen little paragraphs with the flaws of the contract.The last reason is that everything has not only merrits but also flaws, which are typically not displayed.In order to sell products the producer has to display it in a good light, because otherwise similar products from other companies will be bought.This situation makes a better exposure of a product than it actuallt is very likely.An example might be creams that should improve the look of human skin.Studies proved that they show no effect, but in contrary even sometimes hamrs the skin.If this would be told in an advertisment nobody would buy the cream.A good example for the second reason are contracts of phone companies.They often announce some but not all of the costs a special contract may produce.Because of legal statements they have to write these flaws on the advertisment but they do this in very small letters.So if you don't look carefully you might get the impression of a much cheaper product.In advertisments flaws of products are never told, expect there are special rights as with the phone contracts.But everything has sides that are better or worse especially if compared to other similar products.Advertisment do not speak about these things where other comparable products can prove better results.So they always hide some sides of the product.To show this hidden characterisitcs almost every product is tested by independent magazines or something alike.For exaample computer magazines that test hardware and software.So you can not rely on advertisments.</t>
-  </si>
-  <si>
-    <t>I agree with with the statement that most advertisement make productes looking better than they actually are.I hold this opinion for the following reasons.If we think about cataloges around the fashonindustry we have all these perfect looking models in mind with dreambodys and we suggest the clothes these models are wearing must also perfekt fit to us.We have no Clue that this is not going to happen.The pictures we see in the cataloges promises something it can not beeing fullfilled.Another example I like to use are advertisements in travelcataloges we look up in research for a nice place to have some vacationtime,comptible hotels and the magazin shows us a varitie of wunderfull posibilities of enjoing our staying and by the time we arriving there is just nothing left from the sites the magzin had offered us.This can be a very disappointing experience for almost everybody.One example of a failing result is sometimes even a book wich declaired to be the best praparation  for a test and it did not help at all.</t>
-  </si>
-  <si>
-    <t>I agree with the statement that products seem to be much better than they really are, because of the advertisement which is used.The marketing department of every company tries to make successful advertisement, so that they sell more of these products.Their aim is to influence the consumers to buy the articles or products.Because of this, they are using different things for different products to catch the potential user: The marketing department uses kids and a happy family to make an advertisement for an family car, so that the husband of the family hopefully thinks:"That`s the perfect car for our family.I will buy this one next week."You can see advertisement like this everywhere: During the breaks in a movie or between TV-Shows there are always spots with the aim to buy the product.Another example for that could be an advertisement for washing machines: "It`s the cheapest washing machine of the world, you will save a lot of money buying this one!"But on the other side it is probably not an economies product, so that the consumer have to pay a lot for water and electricity, because of the bad technology.The managers try with this strategy that the article looks like the best.They want to sell more than the other companies.That`s why the consumers need to decide by their one which product is the best for them.The best way to realize it, is not listen or watch to too much advertisement.In the most ways it is better look behind the advertisement, that means you need to look what can i realy do with it.The consumers need to make a comparison between some products - which one has the best properties or is the most economiesly and not which one looks like the best in the advertisement.</t>
-  </si>
-  <si>
-    <t>117th and 118th grade</t>
-  </si>
-  <si>
-    <t>I agree with this statement for these reasons.First, most advertisements appeal an advantages of the products, hiding a disadvantages.Let's think about the advertisements of a medicines.Most of them highlighted the effcet of the products.not even suggestiong the side-effect of the products.In particular, the medicines for a diet, which is popular in these days, too much focuse on how effectivly help people lose weights in a short time, not even considering side-effect of the products.If the advertisement of these products do not warn people about the side-effect, then people might get medicines too much than they should do,and cause a big problems.Secondly, advertisement tend to attract a customers by changing a slogans or an images of products in purpose.The real product seem not to be different from the one in the picture, but if one closely look into the products, one might notice that the real products are slightly different whatever in color or size.This is one of the strategies of advertisment to sell more products, but it prevents the customers from judgiging the products correctly.In addition, studiest indicated that these little changes using in the advertisement could have a big impact on the customers.Third, people are likely to listen to someone who are widely admired.Because of this fact, some advertisment appeal their products using the statements of the celebrities; futhormore, these celebrities appear in the newspaper or TV shows to advertise the products.This makes people entirely rely on the statesment of the celebrites, and purchase the products without deep consideration.Advertisement is useful sometimes because it provides useful information about the products to customers.But it could fool customers in order to make products seem much better than they really are by exaggerating the advantages of products or using some tricky ways to advertise the products.</t>
-  </si>
-  <si>
-    <t>83rd and 84th grade</t>
-  </si>
-  <si>
-    <t>We are facing thousands of advertisements in our life.They are easy to say "nothing is better than this".However are they all true?I don't think so.They do 'over-advertising' the product than the real ability of it.First, i declare most advertisements make goods seem much better than they are because of my experiences.Last year, i had really long black hair but my hair condition was not good so that i decided to make my hair healthier.At that time, a ran into some advertisment with a very attracitive woman and her hair looked like silk.What i felt that time was, if i use that product i would have facinating hair like that woman's!I used it for a long time but i couldn't have had a silky hair like that woman.First i was depressed, but than i began to think, that's what advertisers do.'Over-advertising'.Moreover, in my opinion there is resonable reason that the company has to over-advertising.From my experience that i mentioned above,  i was wandering why they are doing it?Why couldn't be just honest so that no one would expect which would be never happend.Then, i got the idea.There's hundreds of different shampoo in the market.To take attention from people, they have to be attractve  to survive from the compete with others.in short</t>
-  </si>
-  <si>
-    <t>I believe that most advertisements make products seem much better than they really are.There are two reasons as follow.First of all, most people would agree that the products in the advertisement are presented under the best circumstances since the purpose of advertisement is to sell the products.For example, clothing manufacturers and designers put their clothes on good looking models which makes clothes more attractive.Another example can be food advertisement.Food is presented in the best dishes with picture perfect lightening and everything.I remember that I had to return some of the products I bought because they were different from what I had seen on the Ads.Secondly, advertisement is one of the most powerful ways for producers to communnicate and  convince people that their products are benefitial to cutomers, Therefore, people tend to emphasize the strengths of the products rather than showing their shortcomings unless they are legally asked to do.For example, when we listen to TV or radio commercial such as cosmetic items, we feel like that items can be solution to all of our skin problem.The ad does not say how time or money consuming the products can be.That is, I think, one of the reasons that certain products such as cigarettes or sleeping pills are required to state the possible side effects.Unless the law requires, companies would not want to show their shortcomings.As I stated above, advertisements are used to promote the slaes and communicate with cumstomers and viewers in favor of the products.Consequently, I am truly convinced that products are better projected in advertisements than they are in reality in most cases.</t>
-  </si>
-  <si>
-    <t>164th and 165th grade</t>
-  </si>
-  <si>
-    <t>I think that most advertisements make products seem much better than they really are.There are two reasons for my opinion: the pupose of the advertisements is to sell the products, and the audiences do not see directly the products on their eyes.First, the purpose of the advertisements makes the goods seem much better.The advertisement company should present the goods to sell, not to show the virtue and vice of the goods.When people see the advertisement, the goods seem perfect and make people the happiest person in the world.When I was a middle school students, I really wanted to buy a new computer; I actually did not have good knowledge of the computer.When I watched a fabulous advertisement of a computer, I pursuaded my parents to buy the computer on the advertisement.Finally, my parents accepted my seggestion and bought me that computer.However, I found out my new computer used not genuin programs on the computer.I pursuaded my parents with the computer because the computer had everything looks best even though it was very cheap.I was very disappointed about the advertisements which described their products as the best at that time.Second, the audiences does not see directly see the products on their eyes.People say that the goods on the picture or the TV look different when they see it directly.My sister had a similar situation recently.She bought a bag on the website which looked fine.However, she did not even recognize the bag because the color of the bag was different from the picture on the website.It was not the seller's fault but the camera's fault.I read an article related to these happening; Seeing an object on the picture and seeing the object on the naked eye are different because the camera lens produce the photo with mixing red, yellow and blue which cause distortion of colors.Moreover, the advertisement companies devise the best angle of imposing lights on the product that the product looks better.This problem means that people should not precisly judge a product only according to the image presented on the picture or the TV.Depends on my experiences and scientific knowledges, it is clear that most advertisements make products seem much better than they really are.I hope that the advertisement companies try to show the virtue and the vice of their products rather than only show and exaggerate the quality of the products.Moreover, I wish that scientists invent more accurate way of taking picture or recording that the audiences can face the goods more accurately.</t>
-  </si>
-  <si>
-    <t>181st and 182nd grade</t>
-  </si>
-  <si>
-    <t>Although the basic concept of advertising is itself to promote a product or a service, I do agree with the statement that Most Advertisements make products seem much better than they actually are.Advertising for products is essentially the process used to convince potential buyers that the product in question is fit and suitable and the best in the market.However most advertisements blow this definition completely out of propotion by marketing a product which ends up being radically different when finally used.The degree of exaggeration used in advertisements to convince the buyer is at times ridiculous.Advertisements in the fast moving consumer goods domain especially strictly adhere to the policy of displaying a completely wrong image of the products which make them seem much better than they actually are.An example that comes to mind is a commercial for a leading shampoo product which claims to not only put hair back on the heads of of its balding users but also rejuvenate them to the extent that they will be able to compete with the best drivers in the world on a formula one car racing track.Advertisements in various other sectors also mislead users to believe that the product will offer qualities that it was never designed to provide in the first place.Although one of the selling points of a good advertisement is in some cases to provide a tinge of humor to go with the product, certain advertisements and brands use this to the extent that make their products seem too good to be true.Various mail order catalogs for exercising systems are also another a clear example of how the end product differs vastly from the advertised one  
-Especially in today's wolrd where common opinion has it that media over powers print, people look to advertisements especially on television, to help them make informed choices about which product suits their needs better.This dependency may not be large when it comes to everyday products, but in cases of products which are highly expensive and involve large investments, some advertisements can often mislead people's desicions.An example to illustrate this are the advertisements for real estate projects or finance and tax saving instruments and more recently even in job searching portals.Some of the advertisements have caused people to make incorrect decisions due to their assured but unrealistic claims.All in all, my belief is that advertisements should help people make informed choices and should make people aware of the product.A certain degree of humor and make believe is alright but the core functionality of the product itself should not be made a fantasy as is the case with many of the advertisements in todays world.I therefore ardently agree with the fact that most advertisements make products seem much better than they really are.</t>
-  </si>
-  <si>
-    <t>119th and 120th grade</t>
-  </si>
-  <si>
-    <t>I completely agree with the statement that most advertisements make products seem much better than they really are.There are maily three reasons for my opinion.First, the advertisement agencies over-publicizes a product.This is particularly done in the case of a launch of a new product in a market.Since, no one has ever consumed the product, the companies have an added advantage of referring to their product as best in the market, without the need of any facts to proove it.It is, after the product launch, that consumers read reviews about the new product and realize its exact worth.Another reason is that, most advertisements includes creative ideas,which entice various fantasies in consumers.The consumers start to believe that they might come true if they started consuming that product.Sheer curousity of consumer for that product, forces him to buy and consume it.It is shortly after that that the consumer realizes that he is not in any super natural state, which he thought to be in while consuming that product.This results in lost of trust of consumers in the brand.Third,nowdays there is an increasing participation of renouned personalities in advertisements for various products.For example, a new range of nike sport shoes is being endorsed by a leading soccer player or a complete range of clothes being supported by a famous celebrity.As these famous personalities have a very large fan base over the world, it leads to incorporation of blind trust in these brands by their followers.Who want to be like their on screen idols in their lives.People does not even search for reviews on these products or at least consider the use of these products in their lives.Advertisements should display appropriate contents in them,so that consumer is not mis-guided by their curousity.Products should consider this so that it may not result in loosing their brand name.</t>
-  </si>
-  <si>
-    <t>151st and 152nd grade</t>
-  </si>
-  <si>
-    <t>In todays world of cut throat competition, advertising plays a major role in increasing the sale of any product.There is a large variety of products available in the market today.Similar products are manufactured by many companies.Hence customer today has a variety of chooice.The differences in these similar products may be very minute.The advertising helps in exaggerating this diffeences.Take cars for example.One car manufacturer may exaggerate about the spaciousness in the car by comparing it to a lounge ambience in its advertisement.Another car manufacurer in the same category may emphasize on the outer design of the car comparing it with the aerodynamics of a spaceship.Thus both the manufacturers have a selling point to be amphasized.But as the saying goes looks can be decieving because all that glitters is not gold.There are so many instances in which the customer is fooled into buying a product because of the galmour created around it through advertising.These instances are coming to life almost everyday.There  are many letters in the 'letter to the  Editor' columns of newspapers that highlight this point.Let us consider a simple example of buying an apartment.One of my close friends wanted to buy a new apartment.He collected many brochures and visited many incomplete sites of construction.He decided to finalize on the basis of the brochure comparison.The brochure of the apartment he zeroed on spoke about the spacious rooms, facilities like gym, sauna, play park and many more amenities.After actually shifting to the apartment he was surprised to see big spacious rooms accompanied with lot of plumbing problems, no gym, the sauna without water in the pipes and so on.But if the advertisement hoardings were to be followed, this was a dream apartment.This is a common case for a large variety of products.Going from the advertising point of view, the advertisers are paid to make the products look good even if they actually arent.Take an example of a popular razor which shows leading sports personalities using it.This razor actually caused skin problems to a customer according to a news paper.But the company that made this ad made profit and successfully helped in selling the product.There are many more instances which help in supporting the statement that advertisements do make products look much better than they actually are and I completely agree with this notion.</t>
-  </si>
-  <si>
-    <t>I agree with the statement that most advertisements make products seem much better than they really are.Due to advancements in technological and financial markets, access to money is easy.Because of the excess liquidity in the current economies around the world many companies are expanding their businesses.There are a number of companies that are producing same kind of products.They themselves know that it is extremely difficult to produce something different every now and then.But they all have realised one way of selling same products in different packaging to customers.Advertisements!!Now technically they know that they can't differentiate their own product from other products available in the market.Let's take an example of a car advertisement.It's an entry level car Hyundai Santro.They have  Mr. Shahrukh Khan (Popular Filmstar) as their brand ambassador for India.In their advertisement it's shown that Mr. Shahrukh goes for a long drive with his girlfriend ( who is again a big filmstar).Now everyone in the world knows that Mr. Shahrukh sends a BMW to pick up his kids from school and drove santro in the advertisement for first and the last time in his life.But people are fascinated by this and buy cars just believing that if he uses it it has to be a good car.Having one myself, i know it is a good car but not because of the advertisement.They show that if you use this car then you may get good looking girl freinds but actually it has nothing to do with the car.I think it is appropriate to discuss example of an advertisement of Bournvita.It is a drink for growing children.They claim in advertisements that if children drink this they will grow faster and healthier.Now if that was the case then producer should be the richest person on planet earth.I agree with their claims regarding content of the drink mix, Calorie content and presence of proteins etc but I  can't believe this increase in height part.Let's take another example for a telecom service provider.In it's advertisement they claim that they provide hassle free and customer oriented service in their outlets.I fell into the trap and took the connection.For the first time when I went to the outlet for a complaint I was left there to wait for half an hour.Eventually after having a verbal argument I took a pledge not to believe advertisements.I belive that to survive in this cut throat world companies will always invent ways to sell their products.Advertisements is one of them.Whatever you see on TV, you should not believe it as nothing in this world is as simple as it appears.</t>
-  </si>
-  <si>
-    <t>I do agree with the statement that advertisements make products seem much better than they really are.This I concluded from my own personal experience, and the personal experiences of my relatives and friends.I have, on several occassion, actually purchased, a whole range of products, like lipstick, soaps, detergents, clothes, etc, after having seen them being advertised on TV.But on most occasions, I was not happy with the product in hand, they simply did not match the quality that they claimed in the advertisement.In a leading brand shampoo advertisement, for example, It was claimed, that the regular use of the shampoo for a months time, would lead to the complete dissapearance of dandruff.Believing this claim, I bought the shampoo for my self, and used it as advised.But the results, were very un satisfactory, after its use not only did the dandruff problem continue to persist, it had in fact much worse than what it was before it's use.Similarly, a leading health drink brand, in its advertisement claimed that, this was, by far the best health drink availble in the market, and it tastes much better than any other brand.Falling pray to their claim, I changed my brand of health drink.I purchased this, Instead of the one that I had been using for a long time.To my surprise, I found almost no differece between the two brands, not only this, there was no added health advantage I recieved form the usage of this brand, which I did not recieve from the usage of the earlier one.My relatives, friends, and many of you as well will have similar experiences to recount.Indeed advertisements make tall claims about the products, and they have ways to make their products look much better than they actually are.For example, let us talk about a leading brand energy bar advertisement.In this add they show a well built athlete, on the race track, sand claim that we can be like him we use the energy bar.But some thinking will tell us, that there is nio way of guessing how the athlete got his health.A sneak into the athleats personal life will tell us that. Not the addAdvertisement , should not be belived, they are there to sell products, and to do that they can go to any extent to make thir product look better than those of their competitors.As a result of which most end up making tall claims about the product and make the consumer buy these.After susequent use the consumer realises the product is not as good as it was claimed in the advert</t>
-  </si>
-  <si>
-    <t>137th and 138th grade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I totally agree with the statment that most advertisements make products seem much better than they really are."What you see may not be true" some very wise person said that.We people forget a very simple fact which company in the advertisement will show v that their product in not what you want or are expecting but will show that product is beyond your expectation and will do wonder.Take an example of a cosmetic company in all their advertisments, we will see beautiful girls and boys who have the perfect hair, face and not to forget figures.Why all thanks to the product of the company they are advertising.We people get carried away so much by these beautiful faces and the magic created by the billboards and telivision ,that we end up spending loads of money without thinking for one second that these people are paid models and its their job to look beautiful.None of these advertisements anywhere will show or tell how harmful their products can be .Also none of these advertisment will take any gurantee that what these products did for those models will do the samething for you.Like meeting your prince charming on a subway if you wear a certain perfume.The only thing I can smell is other persons bad breath or their underarm odour.Most of the times as a parent it is vey difficult to explain to your younger children why a certain brand of cereal is liked by so many children  on telivision and when you bring it home everybody runs away from it after first tatsing session.Also why most of the food chains make their produts so delicious that you want to eat right there from the screen but when you order you feel like throwing out.In my opinion companies should take responsibilty not to mislead people by showing that their products are not only of superior quality but will also achieve what they show in advertisement.They should instead of spending thousands on publicity, should spend all that money on maintaing the quality of the products, because nothing works better than word of mouth. </t>
-  </si>
-  <si>
-    <t>65th and 66th grade</t>
-  </si>
-  <si>
-    <t>I agree with that most advertisements make products seem much better than they really are.There are two main reasons to couse this fact happened.One is the advertisment company have to
-present the best influent to the comsumer as product owner required.The other one is high technology could make everything to appear perfectly.The purpose of advertisments is making products lively, since most of products can not talk for themselve.For example,   
-to promote perfume, advertiser will fine a famours movie actress or actor to show how satified when they wear this perfume.As today's technology, all of products can look like flawless.Using the computer graphic function can show the products more  colorful, and tasty.Like car can ran fast than reality.That's the reason i agree with that most a</t>
-  </si>
-  <si>
-    <t>126th and 127th grade</t>
-  </si>
-  <si>
-    <t>There is a diversity of opinions over the issue of whether most advertisements make products seem much better than they really are.Nowadays, when faced such a problem, some people believe that most advertisements make products seem much better than they really are, Others, on the contrary, seem to have opposite opinions.In my point of ivew, however, I fully agree with this position that most advertisements make prodcuts seem much better than they they really are for the following reasons.Here are some reasons why.First of all, consumers can't deny that companies spend a lot money to broadcast their prodcuts.Using pop stars or overstating their effects is one of their ways to sell their products.However, consumers never think about where these money come from and go.As a matter of fact, what consumers pay for what they buy going to the advertising because companies want to cousmers to buy their products.There are a lot of similar products in the markets.Only one way making consumers to remembe and choose  their products is to advertise.In addition, companies using advertisements tell people that how good their products are.In fact, people always feel upset because the products don't satisafy them.Take myself for a example, one time I bought a food, according to the advertisement, that could helf me to reduce my weight.Needless to say, I spent a lot of money and time to try it.However, the outcome was making me pretty upset becuase it didn't work even thoug the company has guarantee about the effects.After this experience, I never believe what advertisements say.To sum up, it is not very wise to believe any advertisements.My personal experiences and actual observations of life have led me to conclusion that companies spend a lot of money to broadcast their products even though their products doesn't seem much better than they really are.Companies not only exagrrate the abilities of products, but also transfer the costs to the consumers.</t>
-  </si>
-  <si>
-    <t>I agree that  most advertisements really make products seem much better than the products really are, and that is why people make the advertisements for their products because they want to sell them for money.Businessmen do not care about other people' right, only things they just wanted is money, money, and money.Athough some products which are made by famous companies are actually pretty great, but most of product are not as well as the adertisements shown.I still remember when I was a child, I saw a very cool advertisement of a toy, but my parents told me I should not buy that because the real thing is impossible as well as the advertisement said.I disagreed with them and finally bought the toy which I wanted at that time.After I got home, I was so exciting and opend it without taking off my shoes, and I found out I was wrong.It was the worst toy I had ever seen before.I felt so sad.I was crying for whole night.After that time, I do not believe those beautiful advertisements.I think it realy dishonst for people who bought these products.The businessmen make the advertisements which are too different from the real things.It is fine for me if there is only a little different between the products and advertisements.But sadlly most of advertisements for the products are too "wonderful" which make me think it is impossible to be.I realy hate those advertisements, but that is how the things work, I could not change that.I think in the furture there will still be a lot of people buy those amazing products, and they would understand and learn a new lession, "do not trust those dadvertisements anymore."</t>
-  </si>
-  <si>
-    <t>Advertisements are one of the most power means of communication in modern society, people hardly ignore their existant.Undoubtedly, nowadays, advertisements are everywhere, people couldn't live without them.There are on the TV, in the radio, on the top of the building, event being printed on the subways and buses.Most of advertisements combine with words and illustations, these sentences and colorful pictures strongly draw people's attention.I Take myself as an example, I was always being attracted by the huge billbroad hung on the Time Square, and I felt these pictures are so delicate, elegant and beautiful.Nevertheless, have you ever think about that are they too good to be true.Are these modles on the billbroad really as perfect as princes and princesses in the child's book.I mean They have no pimples or extra hairs at all on their faces.Something must be done for this advertisement I suspect.After I went to graphic design school to obtain the knowledge about photoshop, I understood that actually these perfect faces had gone through special repairs, the advertisers or graphic designers applies photoshop to make the model's faces look fawless.In this way,  advertisements will attract comsumers to purchase more products, and make more profits for merchants.However, it brought about many disadvantages.Some products in the advertisements look too good to be true, actually, in some extent, the companies or merchants misled the comsumers.For instance, one day, I went to lunch at Wendy's, I was attracted by an advertisement that a huge hambager with a big pack of french fries only charge me $3.Then I bought it without a hesitation.When I recieved the food from the attentant, I was competely shocked.The food is not good enough than I expected before.From that day, I didn't trust food advertisement at all, I thouhght they are all fake, the food is not as food as they discribe</t>
-  </si>
-  <si>
-    <t>I agree with the statement that most advertisements make products seem much better than they really are.Advertisements are meant to convince potential buyers to purchase certain items.Therefore, in order to convince the buyers, advertisements almost always make products appear better than they really are.My reading of an article on the local newspaper and my personal experience of purchasing a skin care product prove this point to be true.I once read an article on a local newspaper that informed readers about the art of advertisement.The article said that in order to convince the potential buyers to purchase certain items, the advertising market must make the products to appear as amazing as possible, even if they appear better than they actually are.So that potential buyers will be convinced of the products' worth and effectiveness.If the advertisements make the products seem worse or the way they really are, they will have a more difficult time to convince buyers.In my opinion, the article had a point.In addition to the article, my personal experience also proves that most advertisements make products seem better.I have always wanted clear, smooth skin.I remember seeing an advertisement of a skin care product on the television.The product was described in the advertisement to be so effective that I was completely convinced before even trying it.However, after purchasing the skin care product and using it for two months, I still had countless pimples on my face and the quality of my skin did not improve at all.This experience showed me that advertisement make products much better than they really are.Both the article on my local newspaper and my personal experience prove to me that most advertisements make products seem better than they actually are.In numerous cases, the products that buyers purchase in reality do not live up to their descriptions in their advertisements.So next time when I purchase an item, I will not judge its worth and effectiveness just by looking at its advertisement.</t>
-  </si>
-  <si>
-    <t>85th and 86th grade</t>
-  </si>
-  <si>
-    <t>In this competitive world, lots of company are rised and lots of company are disappeared.Some company, in order to make a great amout of profit, use unethical way to produce their products.I  really agree that  most advertisements make products seem much better than they really are.Some examples will be showed in my essay below to prove how much i agree about the statement.Almost every day i will watch TV show and follow by a huge number of advertising which are shampoo, conditioner, bank, restrant and more.The one i think most attractive is "VS" , which company made hair shampoo and conditioner in Britain.In this advertising, every model 's hair will looks very shinny, soft and healthy.I tried one set of this production , after i used them it was good, my hair are soft but not shinny.Another advrtising i want talking about is restrant.Everytime i saw the advertising about the food that Drogen Restrant  made was nice and delicious.Their pics showing their food in the nice color.And the restrant looks in the pic are big and nice.But after i tried this restrant, i can say  i do not want try again.The food are aweful and restrant are small.As a conclusion, company now used all their ablities and incomes on their advertisings how to attract more customers.</t>
-  </si>
-  <si>
-    <t>I strongly disagree with this statement which says that, "Most advertisement make products seem much better than they really are."There are some some reasons so that i disagree with it.The main reason is, it is law that,you have to tell everything whether it is prons or cons of the product to customer.As I talked about the law, it is the responsibility of the employer to give the right information to the customer.If they break the law and not give the right information about the product, and hide something (defects) to customer, customer can sue on it.If it proof in the court, they lose their licence permanently.Another reason is that they lose the people's trust and it will be more important for them.So they never cheat the people whether it is advertisement or somthing else.By advertise wrong information, they make a big mistake and may be they lose thier buisness too.Taking a good example of any electronics company, which produced different types of electronic equipments.Suppose company advertise the computer systems.If they don't mention the limitations with its advantages, and someone buy that computer without knowing its limitation then company has to take back, if customer not satisfied with it.Sometimes some companies do these kinds of mistakes but it is out of law.So every company advertise their product without giving any false information, and this way customer make trust on the company, and they sell more and more products, and make big profit.</t>
-  </si>
-  <si>
-    <t>In the era of scientific development, with invention of newer technique world become like global village.Where people started using more and more modern technique and with the help of media,technology or traditional technique to sell their product to the consumer or they made every efford to reach to their cusotmer.So manufacture always try to attract their customer by advertisement where they try to highlight their product as the best product ,few manufacture  gives misleading information which will attract many consumer to bye or use the product.I disagree with the statement it has been describe below woth few explanation and example.Likewise if one go for medical or over the counter product, many time manufacter try to indirectly attract their customer bye use of different tectique where they use to claim superiority of their product.But it not the true the case  medical faternity always rely of authentic study of drug or response of particule medicine in relavant condition.Where always the better molecule always the win the race.It true with case of selling cosmetic to the consumer, likewise manufacture many time take help of celebrity of filmstars to attract the consumer, but consumer always use the product they trust they trust the product with their experience of their past use of many time media paly vital role where they discuss many ongoing topic where they help consumer to make best choices through available option.It can be explain with car indusrty where if car manufacure of family car try to advertise their car as like racing car performance no customer is not going to beleive.because family car needs to meet the needs of one family as car should be like to perform well over longer time where speed of racing car is not essential.So their will be every effort made by manufacure always try to attract their customer to use their product.It might possible soem of them try to mislead and try attract the consumer for product many it happen we might go for the wrong product which of not per expectation when we see the advertisement by manufacure.But it would happen limited, where we learn from our experince that what it seen might not be ther true, one always rely on their trust and past experince.Where on long term always the best will win the race.</t>
-  </si>
-  <si>
-    <t>I totally agree with the statement given above that advertisment make products seem much better than they really are.If you believe everything what the producers say and what they sale then maybe you think that you buy the best product.But if you know that they give you not all the information, most people recognize the reason behind the advertisement.For example in politics, during the election, most of the electors vote for the candidate with the best advertisement.Though they even know their ambitions.So the politicians waste most of their money to emphasize their popularity.But it is no matter of fact that the most popular politician makes the best politics.I think the importants thing is to get into it if you want to be sure to by the best products.But you should never be sure if an advertisement told you that you bought the best</t>
-  </si>
-  <si>
-    <t>106th and 107th grade</t>
-  </si>
-  <si>
-    <t>To make advertising is for increasing sell the product.I know the purpose to make the advertising.Howevery, there are many disadventage to buy some product from just watching  the advertising.I bought some clothes in the internet shopping mall.Thase are so pretty when I see the clothes on the monitor, but i disapointed the real product, color is different from the monitoer., and when I saw the clothes, it looked very sleem.Anyway, I don't believe any advertising  any more.I can examplify some unbeievable reasons.They sometimes said  not real fuctions.For example, there is a advertising on TV that  hires very famous an beliverable persons,such as movie stars , sports men  or scientist.We can believe that the person tell anything, whether they say the ture or not.The belife doesn't come from the function or effection of the product, but from he believerable person.It is just trick.If someone the watch a advertising about car on the TV, and engeenior says that the car  can safe your life and give a exeriment in the advertising.We can beleived his speaking.Some diet drugs,they show the ficture about before and after.and hire nutrieceion.Another example, they sometimes use the exaggeration  in the advertising.There are a car that is showing faster than the airplain according the computer graphic.We can realize that it is not true, but sometimes we believe the fact that the car is fastest car in the world, because no one compares to the arirplaon before.So, I agree this sencence, It is the reason to make the advertising .We should have the ability do distingush between the fact and the exaggeration for exceed selling rate, increasingly.</t>
-  </si>
-  <si>
-    <t>56th and 57th grade</t>
-  </si>
-  <si>
-    <t>The companys in the world build a lot of product, but not all of these product need the people.So the companys spend a lot of money in TV spot or marketing in newspaper.They want that the consument thinks that they spend the best product and the consument has to buy the product.The question is when the companies spend more money in marketing, sell they more.And if yes spend they so much more that the cost for marketing are in the value.Red Bull spend half of their money in marketing, they have two teams in the formular one, one football club in austria, one air craft world series, ...But is that to much money.Cannot they spend the money in better produkts or gaves the money to theirs workers, shareholders, in social projects,... Another example is Ebay, Ebay spend a lot of money to tell the people that you can be happy if you sell your thinks which in your house or in your flat.You tell 3, 2, 1, my.But are you happy or is it better if Ebay do not spend such a lot of money in marketing.When they spend the money a better product, lower cost for the customers.Or if they spend the money in environment.Advertisements should tell us that we buy the best product, but in real we do not buy a product which is better than the product which stand next to them.We habe to pay for the marketing, product from big companies are more expansive than products from no name firms.The people feel better if they buy a product from big company, because they know that they get a good product.When they buy a product from a no name firm they do not konw if the product is quit good.</t>
-  </si>
-  <si>
-    <t>I think advertisements give us a different image of a product.This is possible because advertisements always manage to affect our mind and our imagination through television  and newspaper.They modify our perception of a product bulding an entire world around a simple object.When we watch an add on the tv, we never pay attention to what is advertised.We are caught by slogans and images.Sometimes we don't even see the product itself being showed.So, we just remeber the name of the firm and sometimes the catchy melody that accompanied the add.Television usually advertises brands, not products.That's way we may not get a proper idea of what we are going to buy.In  newspapers products are often advertised by movie or sport stars.In that case, we stare at the picture of the star and don't notice the product.We associate that good to a character of the show business.In this way we don't care of what we intend to buy, but whom we are going to look like after we bought it.We look at images, not goods.Both pictures and tv commercials are now made by very famous artists.We are attracted to the advertisements for themselves.It seems to me that the more an advertisement is tempting and promising, the more talent is required to hide the real nature of the object.The beauty of  an add obscures our idea of the product.Advertisements are aimed to built a web around a product.A chain of associations that must influence our behavior as consumers.To make us buy something that maybe we are not going to like and enjoy.Television, internet and newspapers all offer a great and profitable way to accomplish this goal.</t>
-  </si>
-  <si>
-    <t>In the modern economy, characterized by the progressive saturization of the markets in each business area, it becomes more and more strategic for farms the use of advertising through the mass media (television in particular).But often, in order to stimolate consumers' desires, advertisements seem to overextimate the real potentiality of products.That assumption is more than that.It's a concrete reality.In fact in the last decade public institutions had been created to control product advertising and to state if the picture offered by advertisements really reflects the product characteristics.The creation of such institutions points out that in order to improve the sails of a product, it's much more important the immage the farm gives to the market of it than its real technical characteristic.For that reason often consumers prefere buying a well-known product than an un-known one, even if it has much more better technical qualities.An important example of that phenomenon occured in the car builders sector few yars ago.Two important  groups, Audi on one side and Saab on the other one, decided to improve a project for a new car togheter.I particular, in order to cut down the costs associated to its production, they shared the same motor and also the same structure of the car.So the two cars had the same performance as reguard for speed, control and other technical parametres, but were a little bit different in the hestetic (not too much).Well, even if this two cars were so similar, Audi sold millions of unit more than saab did.And why did it succede in doing that?Only because, thanks to a better comunication and advertisement to the market, it had maden people able to believe in the superiority of its product and in the reliability of Audi brand.But lots of other examples can be shown in all the business area: products pictured as innovative, sure and unbreakle are only common products that you can buy with ease (and sometimes at lower price) from another farm operating in the same area.Finally, looking at those and lots of other examples, I completely agree with the statement presented and I want you all to meditate on such a misrappresantation.</t>
-  </si>
-  <si>
-    <t>In later years advertisenments have increased a lot, especially on tv and newspapers.The most part of spots presents product or services in a way that can make them appear better then they really are.Many and many tecniques are used to present products enphatising their quality: for example in icecream's spots they use a camera recording at a very high fps (frame per second) and then play the spot at a lower speed.Using this tecnique icecreams will appear to be more creamly even if they aren't really like that.I completely refuse the trend to present products in this way.In my opinion advertisements must present products or services as they  really are.Presenting products in such a way is also a risk for the firm: customers may be unsatisfayed by what they have bought if it isn't as the advertisement has presented it.Probably they will not buy something from that brand no more.I think that also governement should do something to stop this trend: for example the State should create a team responsible to verify if products are as they will be presented in spots.If a product seems better that it really is, State should punish trasgressors with financial penalties.Nowadays firms must create advertisements that present products better than they are because every firm do that and people will not buy at all products if they seem lower quality than others even from spots.Firms could stop this trend by creating a team controlling all advertisements: firms produce advertisements the best that they can but presenting products as they are.Before publishing advertisements the control team will check if the presentation of products is or not corresponding to real products.If the check is positive, the advertisement can be published.This is also a way to help customers to choose the best product they need.</t>
-  </si>
-  <si>
-    <t>Everyone knows that adverts are made on purpose to sell, it means that products shown on televivion or in magazine do always look much  better than in reality.sometimes it happens that you watch an advertisement on television, which tells you that a certain product is exactly what you need.Basically  they show you many evident qualities, like bright colors or enormous sizes, that are supposed to belong to the object, but once you arrive in the shop you get a huge disappointment: the thing you expected to be big and amazing is usually much smaller and doesn't really look like the one you have dreamt about.This point can easily be explained mentioning the psychology role in making advertisements.In fact, what products really need for being sold, is expectation.it means that the value of an object is determined by the psycholocical impact this object is able to have on people.Provided that behind every advertisement there is the long and hard work of a brilliant psychologists equipe, people should always try to look at icons through an objective point of view.For "objective prospective" i mean that people should try not to be influenced by external  -and sometimes subliminal- messages.messages i am  talking about are generally used by brands to drive people's mind in a certain direction.So ,according to what i have just analysed, i think that it is very important to be aware of what the bid compasnies are doing through advertisement.In my opinion advert- mechanism is a clear example of brain washing: without even know it, in some ways we are forced to do something they want: buy their products.I reckon that this situation is very dangerous and terrible at the same time: i mean someone is controlling us, isn' it scary?</t>
-  </si>
-  <si>
-    <t>I strongly agree with the statement.Most advertisements make products better than they really are.First, advertisements enphatize the quality of their product with catchy slogan: for example it is likely to see a picture of a beautifull woman with the shirt or dress they want to sell taking your attention away from other information.Sometimes advertisements give true but incomplete informations: it happens to me with  ADSL connection.They assured free assistance calling a free number, but when I called that number I heard a recorded voice telling me to call another number with expencive fare.Second, they usually do not talk about disadvantages: for example it is easy to observe advertisements about sports car and seldom do they give informations about how much gasoline they need for running one mile or about taxes owner has to pay.In addition, advertisements often do not give any advice about where or when the products cannot be used.That is very important in particular if items are medicine or noxious substances.For example It happenened that, after the II world war,  large amount of pesticide DDT against insect was used in agricolture, and many people used it also on his body in order to keep dangerous insect away, in the spite of its toxicity.Cocluding, I do not saying advertisements should be banned, however I think that advertisement informations and suggestions from product advertisement should be taken carefully</t>
-  </si>
-  <si>
-    <t>The goal of advertisement is to attract people to buy a product, and therefore they make look the products better than they are.I agree with that, and I will explain with some pratical examples this theory.Most commercials are these days shown on tv, the biggest mass media that we know.Specified products are sponsorized between certain hours, for example, during a cartoon show generally are sponsored products for kids.At night, depending on the movie playing, the commercials change too.If it's a romantic movie, we are most likely to see commercials for products that are used by women, or if it's an action movie the target is the male gender.Some products, such as lingerie, tend to show perfect female bodies in order to attract both sexes.Women will be incentivated to buy it because they will find themselves attractive as the models, and men will connect that image to a sexual pleasure.Sex is, in fact, part of our instinct, and that's where the advertisement are made to hit.Another area where we are more sensible is food, but it's a more delicate subject, because women want to lose weight in a healthy way, while men focus more on the taste.This way, it's very important to advertise a food that both men and women like, not considerating the children.Since we have been bombarded of images of perfect bodies, houses, family, lives... the new commercials are trying to give more of a realistic image (without losing that aura of magic), therefore we still will see beautiful women, but maybe in company of not as that attractive men, making feel the buyers at the same level as them, and not anymore looking at these "gods" as inaccesible.But the new target of advertisement are the children, since they are left more and more in front of the television, and also because generally in the families they have the control of the remote.Anyway, I think that a more specified type of advertising, focused on a restrained target, is yet more effective, but it's more dangerous because it's reaching some levels never seen before.We are always looking for the latest status symbol, which is normally a very fancy and useless gadget, but I'm afraid that is too late to go back.The only thing that I suggest is to reduce the amount of commercials, because honestly, I think that all of us are sick of them.</t>
-  </si>
-  <si>
-    <t>In the twentieth century advertising has become increasingly important, and it is one of the keys for the success of a commercial product.Most of the advertisements, though, try to exaggerate the real features of a product, making it seem much better than it really is.Even if of course I can't appreciate this behaviour by the advertising companies, I can't blame them because if they would tell just the truth they would have to do huge investments to fill the gap between what they used to advertise and what their product really is or they would lose against their concurrents.This would stress also the workers, as they would probably lose their job or get less money than before.The problem is that the global system is now based upon this assumption, and changing this incorrect behaviour would need a global correction of the values of concurrency.But these behaviour is well established and so it's due to the consumer to choose the right products, and not to buy the ones made by companies who just invest in advertising without selling good quality products.There is nothing we can do besides using our freedom of choice in the best way.There is a moment when this behaviour by companies and corporations is nearly criminal and they have to be pursued legally.If a company sells a product that is toxic, unhealthy or if there is a lie in the advertisement, that company has to take its responsability about it in front on a tribunal.For example, I know that sometimes the water that comes from the home sink, that we use and drink every day, is said to be pure in big advertisements around the city.But the laboratory tests have been made in the valley, before the water passes through all the pipes full of rusts in the city.This is an example of a lie told by the State itself.What can a citizen do?I drink water in bottles, even if I'm not sure that my one is etter than the other one.We can't be sure about anything regarding what's advertised about commercial products, but it's important to keep our eyes open and try to choose the one we think is the best, maybe helping with our buying power those products that claim themselves to be natural and that don't do too much advertising.</t>
-  </si>
-  <si>
-    <t>I agree with this sentence, especially after the increasing of different ways to sell a product.In fact, at the beginning there were shops and his owners, so the main work was to convince a client to choose my shop and not another.The focus was on the relationship between the singular shop and each singular client.The rule of owners as vendors was critical for shops' sellings and also for products' line success.Then arrives supermarkets and stores with publicity, which develop a mass production in order to sell high quantity of products.Publicity made with flyers and big images in the main streets of big towns' made the success of a kind of product in contrast with the falling of another.Nowadays the increasing of technologies, such as TV and Internet, and better conditions in people's life make the focus on advertisements.It's not important what you said or who's your message for, the important is how practical, how significant, how brilliant your message to clients is.A spot on TV, created as a "short story" or a sort of "soap opera", can convince million of person to buy your product.Also using a famous testimonial for your spot, like an actor or a sports' man, is very creative and successfull.The globalization made by Internet allowed a product from Japan to be bought in Italy in large quantity and news about innovative products created in different countries are communicate in real time all over the world.In conclusion, well-done advertisements not only make products seem much better than they really are, but also make these successfull and be able to begin a trend, too.</t>
-  </si>
-  <si>
-    <t>With the introduction of mass medias into modern societies, advertisement has developed a new, important role in modern life.As it became important, it also had to develop new ways of attracting people, becoming more and more similar to a work of art than to a businnes-related expedient.One of these new ways was to present the product in the best possible way, in order to attract more people to it.Some companies during this process have also made the decision to lie about the real characteristics of their product.Personally I don't consider this part of the game, eventhough sometimes it can be really annoying.Advertisements are supposed to show a product in the best way, and I can understand if a company decides to hide the bad characteristic of the product in order to make it more attractive.But I really can't accept when advertisements boast about something that is not true.I'm not talking about children's toy advertisements, where products are shown in a "fantastic" way in order to attract the children.I can understand that in this case we are talking about a product that is in some ways related to the child's fantasy, and the adults who are supposed to buy it are well aware of the fact that the toy will not, for example, fly, as it is shown in the ad.I'm talking about advertisements that are directed to an adult audience and lie about the real characteristics and possibilities of the product.This is in my opinion a real fraud and these ads shouldn't be allowed to be broadcasted or printed.Fortunately in these days, new laws about this problem have been created and hopefully advertisement companies will not make a fool of us anymore.</t>
-  </si>
-  <si>
-    <t>Advertising is the art of encourage a customer to buy a product instead of another one having the same qualities.Therefore, it should not be surprising at all that, sometimes, advertisements can make a product seems much better than it really is.Toys, snacks and mobile phone services are three kind of products that are not usually as good as you may think after having seen their advertisements.Last year, I decided to buy a new mobile phone, and so I also had to change my service provider.Since I didn't have enough time to compare all the offers available on the market, I decided to make my decision just looking at the advertisements.I choosed a provider that offered one hundred minutes of free calls every month.One month later, when the first bill arrived, I discovered that this offer was valid for international calls only, and not for national ones.For sure, I didn't get what I paid for.When I was a kid, I once asked my parents to buy for me a new bike.I didn't want a traditional bike, but a BMX, which was the most popular model at that time, mainly due to a big advertising campain on TV and newspaper.The result?My parents bought that bike, which, by the way, was also really expensive, and it got broken after just three weeks.It seemed literally unbreakable on TV.....There is not a big difference from one snack to another.If someone gives you an hamburger, I bet that you won't be able to tell in which fast food it has been purchased.Indeed, advertisements can make a snack seems better than another one.For example, you may think that, since a beverage has been promoted by a celebrity, it is better than a less famous one.The truth, however, is that they are practically equal, and that, if a difference exists, it is almost unnoticeable.Products are not always as good as advertisements may suggest.I had bad experiences in my life when I had to purchase a product, and now I don't trust in advertisements anymore.When I need to buy a new object, I ask for suggestions to someone who has already bought it, or I just wait for a few months.Time only will tell me if a certain product worths its price or not.</t>
-  </si>
-  <si>
-    <t>Products seem much better than they really are.This is a particular problem because at the moment there is a contrast between products and their really values.The born of ogm, and some different new product had cause the " end " of natural products.They're very important for the human survival and for development of words but th "new theories" had changed the etical values and they are chaing the face earth.The people are influenced directly from these problems and they are dieing quikly.The contrast between economical proficts and human soul is a concept old like the earth.People go at a rich life and cut their emotions, their values and their concept of tranquillity life.So the " no good products " are really into the filosofical world of " Macchiavelli ".</t>
-  </si>
-  <si>
-    <t>99th and 100th grade</t>
-  </si>
-  <si>
-    <t>All days we take car to go at work, take train to transfer from a city to another, buy various type of electronic machine, on all of this actions we can watch a million of danger situations!On the train we can read uppon the window that is very danderous put out the head or put out bottles, during drive car we can watch many traffic signals that remember the maximum speed permitted, or finally when we buy a washing-machine we can read the book where are write all instruction to what do and what do not.This are the advertisements that daily we can find in the life.Just when we are child, parents show what is dangerous for us, "do not touch this" is the mainly phrase that it is said.During the grow each child decide what is right for him and, sometime to follow the fashion, make bad decision for himself like smoching cigarettes and joints, or go around with not very good people.Sometimes an advertisement could seem very eccessive, like how do not put a cat in the microwaves, but not all people are able to think what is right and what is not.I think that it is impossible know whether a person is able to choose the true way to make somethingh, and so it is better if other write sample instructions for him\her.Finally I definitely disagree the statement because we cannot know when and what is really dangerous for us, and so I think that is better follow the instruction.</t>
-  </si>
-  <si>
-    <t>Yes.For example this it's possible to observ this question  in a TV spots.We all days watch TV and so a lot of spots.The object or the produtc of spot  is showed always like a magic thing.This is valued from a home product to a healt product.Sometimes we see, in a spot,  beauty creams that make miracles; a woman change from a fat to slim with a few of creams.Another example is about the clotings; the message of spot is if you use that kind of jacket you'll be cool!Finally if you are in a supermarket you can see differnts types of the same product, but it's always the same.This a problem beacause a young mind can fall in this point of view and so think in this way.We live in a rich society but at meantime there is a poor class of people.</t>
-  </si>
-  <si>
-    <t>in our society we live arounded by every kind of spots: on tv, on internet, on the streets.spots are became very important for all industries and in generally for every businness activiities.for this reason who make spot want to realize something that capture the attention of consumers in every way.but we do not often pay attention to them and so we do not check if the spot messages corrispond exactly to reality.in this way the spots can easily influence who are hearing them especialy children that have not a lot of experiences and they often belive everything we tell them.this aspect can be dangerous for children who are not able to check the bad an dangerous sides of some products for example the medicine spot.so i think that autorithies must controll much more every spot and all advertisements of products in order to give more good infomation to consumer</t>
-  </si>
-  <si>
-    <t>For me the advertisements now are part of our life in a wrong way.We are submitted from this.Sometimes the advertisements are very important, we can see new things, new ideas, comparising different opinion about different product.But it could be a disaster if we trust everything these advertisements say and we no more think with our knowledge.The terrible thing is that sometimes they really seem much better than they really are!!For me is a problem about our world, about the industry.Some pleople for money, for the power can do everything.I really like graphic designer but sometimes it became dangerus to do everything they told use to do, becuase olso sometimes the television make the thing much better than it really is.</t>
-  </si>
-  <si>
-    <t>I'm agree with the following statement: most advertisements make products seem much better then they really are.We can separe two kinds of advertisements: those direct to products, and those direct to persons.There are many possibility to increase the apparence of anything or anyone.Teelling about the advertisements that make products much better than they really are, we can give a lots of examples: colorants in foods, pesticides in vegetable or fruits, etc.Many people think that a beautiful products is better than a unlikely product.It isn't true.In fact the produces use the advertisements for sell a product than cannot be sell for its apparence; but this not means that the produtc is good.There is an other type of advertisements.Nowadays,in fact, it is widesprerad the use of the chilurgie plastic for seem much beatiful or young whose the person really is.Other way for seem better is the cosmetic.Each way, however, change the really apperence of the people and bring  other people than are less beautiful to feells bad.</t>
-  </si>
-  <si>
-    <t>89th and 90th grade</t>
-  </si>
-  <si>
-    <t>we are in the XXI century and now I must write about the most advertisements that make products seem much better than they rally are.I agree whit this idea because often many products that the people watch on tv or see around them,do not appear what they really are.In fact I thinck that the television introduces different ideas in the head of people.For example some people buy only shoes or the dress or gadgets that are sign by importantMany people do not know what is the true, because some products are good and have hight qualty.We can value these products for the material they are build, for their aspect, for their end.The apparence is most important but I thinck that is not the most important element of vatulation, but for many people it is the only element of confronte some objects.This idea is rediculeus because the apparence is not all in the life of the people.For example, I am an architect, when I make a proget for a house I thinck that this house must be confortable ,beautiful, faschion, and help the people in the life.It must be the hause of live not only a beautiful house.By the way many people do not understand that a house or another kinds of products are good when each elements 
-that compose the product must be in the sit good.</t>
-  </si>
-  <si>
-    <t>This is an important aspect of today time.This products rathen are not much better, but today is not important the really character of the product, but only the money and the client not rappresented the important actor in this process.Every day any people buy same products that is not rappresented the your necessity, but is only important buy any product.To explain this argoment in my nation, at the television, there is an program that discuss of the problem rappresented by this.More people go to this program television to talk about your problem, that is very radicate in my nation.The modern society rappresented the perfect ambient to influenced the minds of all the person.In my self is present the reasons of this statement, that is one of the problem of the life.But not all the people and the time is in accord with this problem, because any time the person is too according with the make products.Thus I agree with this statement, because this event is present in my life every day, and rappresented the problem with I do fighting.But to explain all the aspect about this argoment is very inportant to illustre any examples.The television programs that every day introduce in the minds more argoment, news and other problem, or breaking news, is the first actor in this process.This opinion rappresented my self in my life, because for me the life of all the people is not possible to influence by the activity of any person.The society lose the propriety when this problem will rappresent the must argoment of the talk and the life of the people, because as very difficult live at a time with this argoment.The my request is that the new politics discuss about this problem.</t>
-  </si>
-  <si>
-    <t>Whethere most advertisements make products seem much better than they really are is a good question.The advertisement is made to increase the selling of the product.So, majour are the qualities of the product that the people know, majour are the selling.Then it can be that some advertising make poduct seem much better.An example are the figure of food products, in the image on the box they seem very beautifull and also very good to eat.But when you open the box and see the product inside, you understand that the pruduct on the box is very different.When I was child and I saw the advertisement of a play I would had this play because in the advertisement it moved much, spok a lot and it had beautifull color.But when I took the play it was static, spok only four or five word and it had bad color.In this case the advertising is used to increase the selling unsing the little child that when they see something that looks like beautifull they want that.There are also some rules that say that the advertisements must respect the quality of the product, but these rules are not always used.To tell the truth there are also some advertisemets that make seem the products as they realy are.But these are not much because if you show in an advertisement a product that is not beautifull the people prefer to buy another product that in the advertisement seem more beautifull than the other, maybe also if it cost much.</t>
-  </si>
-  <si>
-    <t>In daily life there are a lot of products and some of this are not so good, but most advertisements make products seem much better than they really are!Yes, I am agree with this statement because I think that a person have to touch with his hands the product he need becase if we follow only the advertisements he can fall in a not good product.For example, if I have to buy something products the first thing is watch this prodict and analyze it because I want to know it is good or not.Is like buy a T-shirt of a famouse stilist or a not famouse stilist, all the people prefer the first one because have the name but when they buy it, they do not look the material (for example), they buy it because is made from a famous stilist.But if we research more and more in another store I think that we can find a better T-shirt with a low cost.Another example is a dishes soap that i call with the name 'A', the advertisement say that A can clean everithing and  your dishes will be white like the best white thing.Than a person go to buy it because the advertisement say that A do miracles, and when he wash his dishes, he observe that what the advertisement says is not true!Than, in summary I want to say that is important to think befor to do everything especially when we have to choose some product to buy, because sometime we can take a products that most advertisements make much better than thy really are and everytime this is a tipical thing for to spend a lot of money for a products that is not good.The first thing to do is think and the second is choosing the best product for its quality and for its cost.</t>
-  </si>
-  <si>
-    <t>98th and 99th grade</t>
-  </si>
-  <si>
-    <t>I surely agree!..I am not happy to know this thing, but it is the truth.Advertising is made to convince people that a product is better then all the others.Nowdays the answer is fewer than purpose, so companies needs to advertise their products to sell them.In this cetury, or better in the last fifty years the diffusion of mass media all over the world and the born and capillar  diffusion of television are the best  "friends" of advertising's lies.There are a lot of psicology studies about human behavior to constuct a perfect advertise.There are also some ways to test if an advertise has been remembered by the pubblic or not.Somebody makes a lot of research about behavior in the super matrkets or into the commercial centers, too.Nowdays  yoo can assert that adverisements do not sell a product but they sell a dream.They imply... fulfill that dream is easy: "you only need to buy thath product or servce!"However in the real life is different becuse what television spot suggest you, it does not occur.For example the washing products never function on their own and at the first time yuo use them..when you wash something, usually you need to wash it more and moer to clean if not it rest with rubbish on!As I have arleady wrote i am not happy about this thing but i hope that people will chaege this way to sell..i do not know how people can change this thing but I am sure that is occur in few years.</t>
-  </si>
-  <si>
-    <t>I agree with the statement "Most advertisements make products seem much better than they really are".I think today the companies are spending a lot of resouces in order to have their products better showing, I think there is only one reason to spend so much money to achieve a goal that should be not important for the customers.In fact, I think that, if the people would think without any advertisment, they would choose the product that has the best quality, and so the companies that are not producing good quality products have only one solution, and the solution is to make the people think their products are better than they really are.I am very interesting in this issue; and so, in the last few years, I studied a lot of marketing tecniques in order to know what are the companies doing in this field; however, I am also interested in being a good customer, so I want to try to avoid being a customer of a company that has a bad policy regarding the marketing communication.I know that this is today quite difficult to achieve, but I feel that I really have to try it.Another reason, I want to argue to support my idea, is linked with the quality of food we are eating today.I think it is due to the quality of food we are eating, I am affraid that, despite this fact, the people are still spending no more interest in order to know what are they eating.In fact; today the people have and average of diseases much higher that it was several years ago.I thing also the governement should take some decisions in order to clarify the situation.The last reason, I would like to point out, is linked with the agricoltural economic field.I know that today this field is not so important as it was some years ago, but many people are still working in this economic field.I hope the huge companies will not conquest the while market.I know that the progress can not be avoided, but I am still affraid of the future.I hope we could give to our sons a world better that the one we have.</t>
-  </si>
-  <si>
-    <t>I am agree with the statemant that most advertisements make products seem much better that they really are.To support my opinion I have a series reasons.I think that the presentation of a product is the most particular advertisement.You imagine a person that go to buy a product and that at the supermarket he has in his front two products that are the same but they are different sealed.Of course a person will chose the product with the most beautiful packet even if the qualities of the two products are the same.This is an example to demostrate how our idea about a product can be influenced by simple factors.I think that television is the most important advertisement that does to seem a product much better than it really is.It is incredible how television influences the think of the people about a product.I have many friends that stated that they purchase only products that they view at the TV.They think that if a product is merchandised at the TV there is a good reason.This is true in some case but it is completely false in others.I think that it is necessary to valuate a product in all its characteristics and only after that to judge its qualities.However people have not time and in some case the knowledge to do all this work to valuate a product.So they buy the product that usually view at the television.Enterprises do their interersts and out of dubts this is correct to merchandise a product.So enterprises do their game but customers would do attention at the real qualities of a product.</t>
-  </si>
-  <si>
-    <t>61st and 62nd grade</t>
-  </si>
-  <si>
-    <t>In my opinion a lot of advertisement increase the desire of particular things in people and then it seem much better than another that are equal.Such as shoes, there are some brand of shoes that make an advertisement by television, journal, and then guys will prefer a specifical brand than others, but there aren't a lot of differences by one or another's pair of shoes.The television play an important role about this topic, all the day on TV we can see a lot of advertisements and our choose can be influenced by this.A lot of people watch the TV and generally follow medias and the brands know this and then spent a lot of money for making them visible.Sometimes if I am skilled about the thing (such as computers, cars...) I can be aware that another unadvertise brand can be more efficiently, can be better, can have more quality than what I've seen on TV, and this enforce the topic.When a brand spent some money for make it's advertise on TV the price of his products raise but not necessarly raise also the quality, but a lot of people buy him without knows the effectively quality, only because they have seem him on TV or others media.The charateristics of a product can be the same (or less) than another but if a product have a specifical sign on it will be more desiderable.Many times the person who buy an advertise object can be not very happy of his article simply because will see another brands with more better charateristics than him.The advertise can be not exhaustive and can confuse the buyers, it making the product more better than it is really.The people that don't interest about the effective quality of products that them buy often are unhappy because they spent so much and have a lower quality product.</t>
-  </si>
-  <si>
-    <t>77th and 78th grade</t>
-  </si>
-  <si>
-    <t>I completely agree with the statement.Nowaday advertising  show you a lifestyle.They mainly speaks about the feeling or how your life can change  buying a products.That because this is the most important way to sell products.Playing with the feelings :a psycological approach.The more advertisement are made the more a product became important in  people identity.Advertisements are less involved in the quality of the products.To show the potentials of a good is less actractive.If a product will became a trend a big amount of earns is sure.On television the advertisement are like a short movie and the target is leave something in the people life style.The "slogan" or "jingle" is important too.It is part of our life.It must be a funny statement.Poeple must remember it easily.But sometimes it's not related with the quality of the product.I my opinion showing a product at the supermarket or during an exibition is important too.I particulary agree with "test promotions".For example, going at the supermarket and testing by yourself a new product.In this way investiment in advertisement are more important then the work on the product.Sometime it depends on the kind of products we are talking about.</t>
-  </si>
-  <si>
-    <t>76th and 77th grade</t>
-  </si>
-  <si>
-    <t>When we turn on the TV, or the radio, or when we read a newspaper we can see or listen to or read a lot of advertisement.The advertisement is the process that show a product and try to convince people to buy it.Mass media are full of advertisement, sometimes we can say that mass-media are maintained by advertisement (a factory can spend a lot of money to buy spaces on tv, newspaper etc.).Expecially from the 80's/90's spot's campaign became very very important  to promote products... there are factories that spend a lot of money to study how a spot can influence the mind of the people, and how the spot can be an advantage for the selling of the specific product.The phrase that i've red is about that most advertisement make products seem much better than tey really are.I completely agree with this statement.As i said before, in these last years the promotion of the products became obsessive.A lot of products, in tv for examples, are shown like the "PERFECT PRODUCT": they are  clean, positive, beautiful and expecially VERY VERY attractive.When i was a little child i remember that i've seen a spot about a game, i don't remember the name, but this is not important.The game was a plastic man with a lot of blades, cars, guns, enemies...When i saw this spot i praid my mother for a lot of time to buy me this game, and when she bought it i was really impressed.The man was smaller, poorer... there was only 1 blade and not all the guns that were shown in the spot.The problem of the spots is not about childs' games, but is about the lies that are inside of it.You can lie about a game it doesn't matter, but you cannot lie for example about a food, about something that can cause dangers to a person (like mcdonald's for example, if you have seen the film "Supersize Me" you'll understand this)... Now i don't pay attention to the spots, 'cause i know that they lie a lot... but all people do this?Or i take part to a minimum percentage of people that doesn't seem to pay attention to the advertisement?As i said before advertisement are really strong and can conditionate the decision of the people... and this is a factor that can't be left behind.</t>
-  </si>
-  <si>
-    <t>Today, advertisements are everywhere.We are bombed by them in almost every part of our day: while we are reading newspapers or magazines, watching at TV, listening to radio, or just walking in cities, that are sometimes completely covered by them.They are so spread that we often difficulty notice them, cause we consider them as a normal part of a page, or just a pause in a tv program.So, to catch our attention, today advertisements tend to be really exagerated, sometimes even shoking.Infact a society must to send us a message that is fondamental for its life: that his product or service is good, or however really better in comparison with the ones made by the concurrency, and that we need absolutely it.There is no need to mention that it's not true: mostly the products available on the market are actually on the same level, not so better or worst respect the others .Therefore what we need in reality is just a really little part of what we think we need, even if, today, people have usually no awerness of that, and have the tendence to consider everything necessary: it is exactly the aim of the society who sold them all that products.Thus, if a society must convince us in every way  to spend our money for what they are selling to survive and develop, they won't consider immoral to hide some characteristics we should now, or even to state something really wrong about the products.A customer needs  not to trust advertisement almost ever, and to go beyond what we listen to or see to understand the really quality of the good or service.And we should alway wonder if we really need a new kind of pen, if what we are using it's perfect for itself.</t>
-  </si>
-  <si>
-    <t>Most advertisements make products seem much better than they really are, i agree with this statement.When a company make any product by spending a huge amount of money.than the company want to sell it.and then the main Question arises that how they can do it.They apply publicity stund .by advertise they try to make it much better than usually the product is.they try to allure customer.if the advertise is good and attractive, more people attract towards it.and  buy it on demanding cost.after making the product they spend lot of money on advertising to make popular it among peoples.because there is a lot of comptetion in the market and every product maker want to sell more  products than others.for example 2 company make a same product, then there is a great comptetion among maker.who will allure more to customer, will be in profit.and advertisement make a base for this.good advertise for the product, more customer will allure, more profit will occur.so by this way most of the selling of product depands upon the advertisement.and so maker take the help of advertise.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -479,13 +114,6 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
     <border>
       <left/>
       <right/>
@@ -508,37 +136,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -855,7 +490,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -870,21 +505,18 @@
     <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,16 +544,16 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -933,20 +565,11 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
@@ -957,7 +580,7 @@
         <v>3228</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5">
         <v>396</v>
@@ -977,40 +600,31 @@
       <c r="I2" s="5">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
+      <c r="J2" s="7">
+        <v>80.49</v>
+      </c>
+      <c r="K2" s="5">
+        <v>71</v>
       </c>
       <c r="L2" s="7">
-        <v>-293.25</v>
-      </c>
-      <c r="M2" s="5">
-        <v>60</v>
+        <v>7.22</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.8571428571428571</v>
       </c>
       <c r="N2" s="7">
-        <v>24.05</v>
+        <v>9.365079365079366</v>
       </c>
       <c r="O2" s="5">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P2" s="7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>9.365079365079366</v>
-      </c>
-      <c r="R2" s="5">
-        <v>18</v>
-      </c>
-      <c r="S2" s="7">
         <v>1.968253968253968</v>
       </c>
-      <c r="T2" s="5">
+      <c r="Q2" s="5">
         <v>62</v>
       </c>
-      <c r="U2" s="7">
+      <c r="R2" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1022,7 +636,7 @@
         <v>10345</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5">
         <v>459</v>
@@ -1042,44 +656,35 @@
       <c r="I3" s="5">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>26</v>
+      <c r="J3" s="7">
+        <v>68.25</v>
+      </c>
+      <c r="K3" s="5">
+        <v>139</v>
       </c>
       <c r="L3" s="7">
-        <v>-379.53</v>
-      </c>
-      <c r="M3" s="5">
-        <v>128</v>
+        <v>8.87</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0.8571428571428571</v>
       </c>
       <c r="N3" s="7">
-        <v>28.96</v>
+        <v>10.94285714285714</v>
       </c>
       <c r="O3" s="5">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="P3" s="7">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>10.94285714285714</v>
-      </c>
-      <c r="R3" s="5">
-        <v>14</v>
-      </c>
-      <c r="S3" s="7">
         <v>2.057142857142857</v>
       </c>
-      <c r="T3" s="5">
+      <c r="Q3" s="5">
         <v>81</v>
       </c>
-      <c r="U3" s="7">
+      <c r="R3" s="7">
         <v>0.5955882352941176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="45">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1087,7 +692,7 @@
         <v>31650</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5">
         <v>352</v>
@@ -1107,40 +712,31 @@
       <c r="I4" s="5">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>28</v>
+      <c r="J4" s="7">
+        <v>87.37</v>
+      </c>
+      <c r="K4" s="5">
+        <v>72</v>
       </c>
       <c r="L4" s="7">
-        <v>-253.67</v>
-      </c>
-      <c r="M4" s="5">
-        <v>67</v>
+        <v>7.44</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0.88</v>
       </c>
       <c r="N4" s="7">
-        <v>22.46</v>
+        <v>8.26</v>
       </c>
       <c r="O4" s="5">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7">
-        <v>0.88</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>8.26</v>
-      </c>
-      <c r="R4" s="5">
-        <v>11</v>
-      </c>
-      <c r="S4" s="7">
         <v>1.96</v>
       </c>
-      <c r="T4" s="5">
+      <c r="Q4" s="5">
         <v>52</v>
       </c>
-      <c r="U4" s="7">
+      <c r="R4" s="7">
         <v>0.5306122448979592</v>
       </c>
     </row>
@@ -1152,7 +748,7 @@
         <v>38535</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5">
         <v>301</v>
@@ -1172,40 +768,31 @@
       <c r="I5" s="5">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>30</v>
+      <c r="J5" s="7">
+        <v>83.5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>66</v>
       </c>
       <c r="L5" s="7">
-        <v>-206.3</v>
-      </c>
-      <c r="M5" s="5">
-        <v>64</v>
+        <v>7.46</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.7446808510638298</v>
       </c>
       <c r="N5" s="7">
-        <v>20.14</v>
+        <v>8.702127659574469</v>
       </c>
       <c r="O5" s="5">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="P5" s="7">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>8.702127659574469</v>
-      </c>
-      <c r="R5" s="5">
-        <v>12</v>
-      </c>
-      <c r="S5" s="7">
         <v>1.957446808510638</v>
       </c>
-      <c r="T5" s="5">
+      <c r="Q5" s="5">
         <v>48</v>
       </c>
-      <c r="U5" s="7">
+      <c r="R5" s="7">
         <v>0.5217391304347826</v>
       </c>
     </row>
@@ -1217,7 +804,7 @@
         <v>254471</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
         <v>118</v>
@@ -1237,40 +824,31 @@
       <c r="I6" s="5">
         <v>5</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>33</v>
+      <c r="J6" s="7">
+        <v>93.81</v>
+      </c>
+      <c r="K6" s="5">
+        <v>19</v>
       </c>
       <c r="L6" s="7">
-        <v>-30.71</v>
-      </c>
-      <c r="M6" s="5">
-        <v>15</v>
+        <v>6.4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.5909090909090909</v>
       </c>
       <c r="N6" s="7">
-        <v>10.78</v>
+        <v>6.227272727272728</v>
       </c>
       <c r="O6" s="5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P6" s="7">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>6.227272727272728</v>
-      </c>
-      <c r="R6" s="5">
-        <v>8</v>
-      </c>
-      <c r="S6" s="7">
         <v>1.909090909090909</v>
       </c>
-      <c r="T6" s="5">
+      <c r="Q6" s="5">
         <v>21</v>
       </c>
-      <c r="U6" s="7">
+      <c r="R6" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -1282,7 +860,7 @@
         <v>341648</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>185</v>
@@ -1302,40 +880,31 @@
       <c r="I7" s="5">
         <v>11</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>34</v>
+      <c r="J7" s="7">
+        <v>71.84</v>
+      </c>
+      <c r="K7" s="5">
+        <v>51</v>
       </c>
       <c r="L7" s="7">
-        <v>-115.63</v>
-      </c>
-      <c r="M7" s="5">
-        <v>49</v>
+        <v>8.24</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.7037037037037037</v>
       </c>
       <c r="N7" s="7">
-        <v>16.31</v>
+        <v>7.555555555555555</v>
       </c>
       <c r="O7" s="5">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>7.555555555555555</v>
-      </c>
-      <c r="R7" s="5">
-        <v>11</v>
-      </c>
-      <c r="S7" s="7">
         <v>1.925925925925926</v>
       </c>
-      <c r="T7" s="5">
+      <c r="Q7" s="5">
         <v>25</v>
       </c>
-      <c r="U7" s="7">
+      <c r="R7" s="7">
         <v>0.4807692307692308</v>
       </c>
     </row>
@@ -1347,7 +916,7 @@
         <v>95939</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>299</v>
@@ -1367,40 +936,31 @@
       <c r="I8" s="5">
         <v>10</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>36</v>
+      <c r="J8" s="7">
+        <v>81.61</v>
+      </c>
+      <c r="K8" s="5">
+        <v>29</v>
       </c>
       <c r="L8" s="7">
-        <v>-204.61</v>
-      </c>
-      <c r="M8" s="5">
-        <v>23</v>
+        <v>6.2</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1.068965517241379</v>
       </c>
       <c r="N8" s="7">
-        <v>19.27</v>
+        <v>9.448275862068966</v>
       </c>
       <c r="O8" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>9.448275862068966</v>
-      </c>
-      <c r="R8" s="5">
-        <v>16</v>
-      </c>
-      <c r="S8" s="7">
         <v>1.96551724137931</v>
       </c>
-      <c r="T8" s="5">
+      <c r="Q8" s="5">
         <v>52</v>
       </c>
-      <c r="U8" s="7">
+      <c r="R8" s="7">
         <v>0.456140350877193</v>
       </c>
     </row>
@@ -1412,7 +972,7 @@
         <v>108870</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5">
         <v>271</v>
@@ -1432,40 +992,31 @@
       <c r="I9" s="5">
         <v>13</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>37</v>
+      <c r="J9" s="7">
+        <v>74.96</v>
+      </c>
+      <c r="K9" s="5">
+        <v>51</v>
       </c>
       <c r="L9" s="7">
-        <v>-188.03</v>
-      </c>
-      <c r="M9" s="5">
-        <v>44</v>
+        <v>7.37</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.9318181818181818</v>
       </c>
       <c r="N9" s="7">
-        <v>19.06</v>
+        <v>7.772727272727272</v>
       </c>
       <c r="O9" s="5">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="P9" s="7">
-        <v>0.9318181818181818</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>7.772727272727272</v>
-      </c>
-      <c r="R9" s="5">
-        <v>12</v>
-      </c>
-      <c r="S9" s="7">
         <v>1.954545454545455</v>
       </c>
-      <c r="T9" s="5">
+      <c r="Q9" s="5">
         <v>51</v>
       </c>
-      <c r="U9" s="7">
+      <c r="R9" s="7">
         <v>0.5930232558139535</v>
       </c>
     </row>
@@ -1477,7 +1028,7 @@
         <v>115179</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" s="5">
         <v>380</v>
@@ -1497,44 +1048,35 @@
       <c r="I10" s="5">
         <v>18</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>39</v>
+      <c r="J10" s="7">
+        <v>74.95</v>
+      </c>
+      <c r="K10" s="5">
+        <v>90</v>
       </c>
       <c r="L10" s="7">
-        <v>-290.55</v>
-      </c>
-      <c r="M10" s="5">
-        <v>83</v>
+        <v>8.17</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0.8333333333333334</v>
       </c>
       <c r="N10" s="7">
-        <v>24.6</v>
+        <v>8.685185185185185</v>
       </c>
       <c r="O10" s="5">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>8.685185185185185</v>
-      </c>
-      <c r="R10" s="5">
-        <v>14</v>
-      </c>
-      <c r="S10" s="7">
         <v>1.962962962962963</v>
       </c>
-      <c r="T10" s="5">
+      <c r="Q10" s="5">
         <v>58</v>
       </c>
-      <c r="U10" s="7">
+      <c r="R10" s="7">
         <v>0.5471698113207547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="45">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1542,7 +1084,7 @@
         <v>125439</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5">
         <v>370</v>
@@ -1562,44 +1104,35 @@
       <c r="I11" s="5">
         <v>16</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>41</v>
+      <c r="J11" s="7">
+        <v>78.12</v>
+      </c>
+      <c r="K11" s="5">
+        <v>82</v>
       </c>
       <c r="L11" s="7">
-        <v>-283.44</v>
-      </c>
-      <c r="M11" s="5">
-        <v>70</v>
+        <v>7.74</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0.7169811320754716</v>
       </c>
       <c r="N11" s="7">
-        <v>24.08</v>
+        <v>7.528301886792453</v>
       </c>
       <c r="O11" s="5">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7">
+        <v>1.962264150943396</v>
+      </c>
+      <c r="Q11" s="5">
         <v>61</v>
       </c>
-      <c r="P11" s="7">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>7.528301886792453</v>
-      </c>
-      <c r="R11" s="5">
-        <v>11</v>
-      </c>
-      <c r="S11" s="7">
-        <v>1.962264150943396</v>
-      </c>
-      <c r="T11" s="5">
-        <v>61</v>
-      </c>
-      <c r="U11" s="7">
+      <c r="R11" s="7">
         <v>0.5865384615384616</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1607,7 +1140,7 @@
         <v>127657</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" s="5">
         <v>359</v>
@@ -1627,44 +1160,35 @@
       <c r="I12" s="5">
         <v>15</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>43</v>
+      <c r="J12" s="7">
+        <v>84.91</v>
+      </c>
+      <c r="K12" s="5">
+        <v>70</v>
       </c>
       <c r="L12" s="7">
-        <v>-262.8</v>
-      </c>
-      <c r="M12" s="5">
-        <v>62</v>
+        <v>7.38</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0.9508196721311475</v>
       </c>
       <c r="N12" s="7">
-        <v>23.4</v>
+        <v>8.852459016393443</v>
       </c>
       <c r="O12" s="5">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7">
-        <v>0.9508196721311475</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>8.852459016393443</v>
-      </c>
-      <c r="R12" s="5">
-        <v>13</v>
-      </c>
-      <c r="S12" s="7">
         <v>1.967213114754098</v>
       </c>
-      <c r="T12" s="5">
+      <c r="Q12" s="5">
         <v>56</v>
       </c>
-      <c r="U12" s="7">
+      <c r="R12" s="7">
         <v>0.4666666666666667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1672,7 +1196,7 @@
         <v>138619</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5">
         <v>297</v>
@@ -1692,40 +1216,31 @@
       <c r="I13" s="5">
         <v>7</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>45</v>
+      <c r="J13" s="7">
+        <v>80.37</v>
+      </c>
+      <c r="K13" s="5">
+        <v>64</v>
       </c>
       <c r="L13" s="7">
-        <v>-213.75</v>
-      </c>
-      <c r="M13" s="5">
-        <v>58</v>
+        <v>7.41</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1.040816326530612</v>
       </c>
       <c r="N13" s="7">
-        <v>20.05</v>
+        <v>8.591836734693878</v>
       </c>
       <c r="O13" s="5">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>8.591836734693878</v>
-      </c>
-      <c r="R13" s="5">
-        <v>12</v>
-      </c>
-      <c r="S13" s="7">
         <v>1.959183673469388</v>
       </c>
-      <c r="T13" s="5">
+      <c r="Q13" s="5">
         <v>46</v>
       </c>
-      <c r="U13" s="7">
+      <c r="R13" s="7">
         <v>0.4791666666666667</v>
       </c>
     </row>
@@ -1737,7 +1252,7 @@
         <v>623728</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5">
         <v>299</v>
@@ -1757,40 +1272,31 @@
       <c r="I14" s="5">
         <v>10</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>46</v>
+      <c r="J14" s="7">
+        <v>73.68</v>
+      </c>
+      <c r="K14" s="5">
+        <v>58</v>
       </c>
       <c r="L14" s="7">
-        <v>-212.39</v>
-      </c>
-      <c r="M14" s="5">
-        <v>47</v>
+        <v>7.23</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.8</v>
       </c>
       <c r="N14" s="7">
-        <v>19.95</v>
+        <v>7.911111111111111</v>
       </c>
       <c r="O14" s="5">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="P14" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>7.911111111111111</v>
-      </c>
-      <c r="R14" s="5">
-        <v>13</v>
-      </c>
-      <c r="S14" s="7">
         <v>1.955555555555555</v>
       </c>
-      <c r="T14" s="5">
+      <c r="Q14" s="5">
         <v>54</v>
       </c>
-      <c r="U14" s="7">
+      <c r="R14" s="7">
         <v>0.6136363636363636</v>
       </c>
     </row>
@@ -1802,7 +1308,7 @@
         <v>634324</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5">
         <v>257</v>
@@ -1822,40 +1328,31 @@
       <c r="I15" s="5">
         <v>17</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>47</v>
+      <c r="J15" s="7">
+        <v>84.51</v>
+      </c>
+      <c r="K15" s="5">
+        <v>42</v>
       </c>
       <c r="L15" s="7">
-        <v>-168.07</v>
-      </c>
-      <c r="M15" s="5">
-        <v>41</v>
+        <v>6.51</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1.075</v>
       </c>
       <c r="N15" s="7">
-        <v>17.15</v>
+        <v>8.6</v>
       </c>
       <c r="O15" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7">
-        <v>1.075</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="R15" s="5">
-        <v>13</v>
-      </c>
-      <c r="S15" s="7">
         <v>1.95</v>
       </c>
-      <c r="T15" s="5">
+      <c r="Q15" s="5">
         <v>40</v>
       </c>
-      <c r="U15" s="7">
+      <c r="R15" s="7">
         <v>0.5128205128205128</v>
       </c>
     </row>
@@ -1867,7 +1364,7 @@
         <v>634817</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5">
         <v>350</v>
@@ -1887,40 +1384,31 @@
       <c r="I16" s="5">
         <v>17</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>48</v>
+      <c r="J16" s="7">
+        <v>79.69</v>
+      </c>
+      <c r="K16" s="5">
+        <v>81</v>
       </c>
       <c r="L16" s="7">
-        <v>-264.5</v>
-      </c>
-      <c r="M16" s="5">
-        <v>74</v>
+        <v>7.76</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.7678571428571429</v>
       </c>
       <c r="N16" s="7">
-        <v>22.87</v>
+        <v>8.446428571428571</v>
       </c>
       <c r="O16" s="5">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>8.446428571428571</v>
-      </c>
-      <c r="R16" s="5">
-        <v>14</v>
-      </c>
-      <c r="S16" s="7">
         <v>1.964285714285714</v>
       </c>
-      <c r="T16" s="5">
+      <c r="Q16" s="5">
         <v>53</v>
       </c>
-      <c r="U16" s="7">
+      <c r="R16" s="7">
         <v>0.4818181818181818</v>
       </c>
     </row>
@@ -1932,7 +1420,7 @@
         <v>636989</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5">
         <v>140</v>
@@ -1952,40 +1440,31 @@
       <c r="I17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>50</v>
+      <c r="J17" s="7">
+        <v>95.33</v>
+      </c>
+      <c r="K17" s="5">
+        <v>25</v>
       </c>
       <c r="L17" s="7">
-        <v>-66.57</v>
-      </c>
-      <c r="M17" s="5">
-        <v>31</v>
+        <v>6.35</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1.043478260869565</v>
       </c>
       <c r="N17" s="7">
-        <v>11.89</v>
+        <v>7.478260869565218</v>
       </c>
       <c r="O17" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7">
-        <v>1.043478260869565</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>7.478260869565218</v>
-      </c>
-      <c r="R17" s="5">
-        <v>12</v>
-      </c>
-      <c r="S17" s="7">
         <v>1.91304347826087</v>
       </c>
-      <c r="T17" s="5">
+      <c r="Q17" s="5">
         <v>20</v>
       </c>
-      <c r="U17" s="7">
+      <c r="R17" s="7">
         <v>0.4545454545454545</v>
       </c>
     </row>
@@ -1997,7 +1476,7 @@
         <v>666721</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5">
         <v>116</v>
@@ -2017,40 +1496,31 @@
       <c r="I18" s="5">
         <v>4</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>52</v>
+      <c r="J18" s="7">
+        <v>80.23</v>
+      </c>
+      <c r="K18" s="5">
+        <v>32</v>
       </c>
       <c r="L18" s="7">
-        <v>-39.17</v>
-      </c>
-      <c r="M18" s="5">
-        <v>30</v>
+        <v>8.31</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.8333333333333334</v>
       </c>
       <c r="N18" s="7">
-        <v>12.37</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="O18" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="P18" s="7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>6.277777777777778</v>
-      </c>
-      <c r="R18" s="5">
-        <v>8</v>
-      </c>
-      <c r="S18" s="7">
         <v>1.888888888888889</v>
       </c>
-      <c r="T18" s="5">
+      <c r="Q18" s="5">
         <v>16</v>
       </c>
-      <c r="U18" s="7">
+      <c r="R18" s="7">
         <v>0.4705882352941176</v>
       </c>
     </row>
@@ -2062,7 +1532,7 @@
         <v>666783</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5">
         <v>324</v>
@@ -2082,40 +1552,31 @@
       <c r="I19" s="5">
         <v>14</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>53</v>
+      <c r="J19" s="7">
+        <v>71.19</v>
+      </c>
+      <c r="K19" s="5">
+        <v>66</v>
       </c>
       <c r="L19" s="7">
-        <v>-248.26</v>
-      </c>
-      <c r="M19" s="5">
-        <v>56</v>
+        <v>7.4</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.7321428571428571</v>
       </c>
       <c r="N19" s="7">
-        <v>21.42</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="O19" s="5">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7">
-        <v>0.7321428571428571</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="R19" s="5">
-        <v>12</v>
-      </c>
-      <c r="S19" s="7">
         <v>1.964285714285714</v>
       </c>
-      <c r="T19" s="5">
+      <c r="Q19" s="5">
         <v>54</v>
       </c>
-      <c r="U19" s="7">
+      <c r="R19" s="7">
         <v>0.4909090909090909</v>
       </c>
     </row>
@@ -2127,7 +1588,7 @@
         <v>986162</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D20" s="5">
         <v>107</v>
@@ -2147,40 +1608,31 @@
       <c r="I20" s="5">
         <v>7</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="7">
+        <v>79.03</v>
+      </c>
+      <c r="K20" s="5">
         <v>29</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="L20" s="7">
-        <v>-30.03</v>
-      </c>
-      <c r="M20" s="5">
-        <v>27</v>
+        <v>7.91</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1.105263157894737</v>
       </c>
       <c r="N20" s="7">
-        <v>12.23</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="O20" s="5">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="P20" s="7">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>6.315789473684211</v>
-      </c>
-      <c r="R20" s="5">
-        <v>9</v>
-      </c>
-      <c r="S20" s="7">
         <v>1.894736842105263</v>
       </c>
-      <c r="T20" s="5">
+      <c r="Q20" s="5">
         <v>19</v>
       </c>
-      <c r="U20" s="7">
+      <c r="R20" s="7">
         <v>0.5277777777777778</v>
       </c>
     </row>
@@ -2192,7 +1644,7 @@
         <v>999352</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5">
         <v>294</v>
@@ -2212,40 +1664,31 @@
       <c r="I21" s="5">
         <v>8</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>56</v>
+      <c r="J21" s="7">
+        <v>88.31</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45</v>
       </c>
       <c r="L21" s="7">
-        <v>-204.95</v>
-      </c>
-      <c r="M21" s="5">
-        <v>36</v>
+        <v>6.59</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.9310344827586207</v>
       </c>
       <c r="N21" s="7">
-        <v>19.56</v>
+        <v>8.948275862068966</v>
       </c>
       <c r="O21" s="5">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7">
-        <v>0.9310344827586207</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>8.948275862068966</v>
-      </c>
-      <c r="R21" s="5">
-        <v>15</v>
-      </c>
-      <c r="S21" s="7">
         <v>1.96551724137931</v>
       </c>
-      <c r="T21" s="5">
+      <c r="Q21" s="5">
         <v>57</v>
       </c>
-      <c r="U21" s="7">
+      <c r="R21" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -2257,7 +1700,7 @@
         <v>1010988</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="5">
         <v>317</v>
@@ -2277,40 +1720,31 @@
       <c r="I22" s="5">
         <v>11</v>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>57</v>
+      <c r="J22" s="7">
+        <v>86.14</v>
+      </c>
+      <c r="K22" s="5">
+        <v>47</v>
       </c>
       <c r="L22" s="7">
-        <v>-219.83</v>
-      </c>
-      <c r="M22" s="5">
-        <v>42</v>
+        <v>6.76</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1.035714285714286</v>
       </c>
       <c r="N22" s="7">
-        <v>20.83</v>
+        <v>10.25</v>
       </c>
       <c r="O22" s="5">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="P22" s="7">
-        <v>1.035714285714286</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>10.25</v>
-      </c>
-      <c r="R22" s="5">
-        <v>19</v>
-      </c>
-      <c r="S22" s="7">
         <v>1.964285714285714</v>
       </c>
-      <c r="T22" s="5">
+      <c r="Q22" s="5">
         <v>56</v>
       </c>
-      <c r="U22" s="7">
+      <c r="R22" s="7">
         <v>0.509090909090909</v>
       </c>
     </row>
@@ -2322,7 +1756,7 @@
         <v>1012862</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="5">
         <v>230</v>
@@ -2342,40 +1776,31 @@
       <c r="I23" s="5">
         <v>7</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>59</v>
+      <c r="J23" s="7">
+        <v>78.73</v>
+      </c>
+      <c r="K23" s="5">
+        <v>49</v>
       </c>
       <c r="L23" s="7">
-        <v>-134.91</v>
-      </c>
-      <c r="M23" s="5">
-        <v>41</v>
+        <v>7.62</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.7714285714285715</v>
       </c>
       <c r="N23" s="7">
-        <v>16.99</v>
+        <v>8.2</v>
       </c>
       <c r="O23" s="5">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="P23" s="7">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>8.2</v>
-      </c>
-      <c r="R23" s="5">
-        <v>14</v>
-      </c>
-      <c r="S23" s="7">
         <v>1.942857142857143</v>
       </c>
-      <c r="T23" s="5">
+      <c r="Q23" s="5">
         <v>39</v>
       </c>
-      <c r="U23" s="7">
+      <c r="R23" s="7">
         <v>0.5735294117647058</v>
       </c>
     </row>
@@ -2387,7 +1812,7 @@
         <v>1014926</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5">
         <v>398</v>
@@ -2407,40 +1832,31 @@
       <c r="I24" s="5">
         <v>13</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>60</v>
+      <c r="J24" s="7">
+        <v>93.93</v>
+      </c>
+      <c r="K24" s="5">
+        <v>46</v>
       </c>
       <c r="L24" s="7">
-        <v>-296.97</v>
-      </c>
-      <c r="M24" s="5">
-        <v>41</v>
+        <v>5.94</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.9</v>
       </c>
       <c r="N24" s="7">
-        <v>24.14</v>
+        <v>9.033333333333333</v>
       </c>
       <c r="O24" s="5">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="P24" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>9.033333333333333</v>
-      </c>
-      <c r="R24" s="5">
-        <v>14</v>
-      </c>
-      <c r="S24" s="7">
         <v>1.966666666666667</v>
       </c>
-      <c r="T24" s="5">
+      <c r="Q24" s="5">
         <v>61</v>
       </c>
-      <c r="U24" s="7">
+      <c r="R24" s="7">
         <v>0.5169491525423728</v>
       </c>
     </row>
@@ -2452,7 +1868,7 @@
         <v>1046045</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" s="5">
         <v>311</v>
@@ -2472,40 +1888,31 @@
       <c r="I25" s="5">
         <v>11</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>62</v>
+      <c r="J25" s="7">
+        <v>82.12</v>
+      </c>
+      <c r="K25" s="5">
+        <v>69</v>
       </c>
       <c r="L25" s="7">
-        <v>-231.68</v>
-      </c>
-      <c r="M25" s="5">
-        <v>60</v>
+        <v>7.36</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.9019607843137255</v>
       </c>
       <c r="N25" s="7">
-        <v>21.18</v>
+        <v>7.725490196078431</v>
       </c>
       <c r="O25" s="5">
+        <v>13</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1.96078431372549</v>
+      </c>
+      <c r="Q25" s="5">
         <v>45</v>
       </c>
-      <c r="P25" s="7">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>7.725490196078431</v>
-      </c>
-      <c r="R25" s="5">
-        <v>13</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1.96078431372549</v>
-      </c>
-      <c r="T25" s="5">
-        <v>45</v>
-      </c>
-      <c r="U25" s="7">
+      <c r="R25" s="7">
         <v>0.45</v>
       </c>
     </row>
@@ -2517,7 +1924,7 @@
         <v>1020096</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D26" s="5">
         <v>179</v>
@@ -2537,30 +1944,21 @@
       <c r="I26" s="5">
         <v>8</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>64</v>
+      <c r="J26" s="7">
+        <v>77.39</v>
+      </c>
+      <c r="K26" s="5">
+        <v>29</v>
       </c>
       <c r="L26" s="7">
-        <v>-103.45</v>
-      </c>
-      <c r="M26" s="5">
-        <v>34</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13.31</v>
-      </c>
-      <c r="O26" s="5">
-        <v>16</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="8"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2">
@@ -2570,7 +1968,7 @@
         <v>1647196</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5">
         <v>294</v>
@@ -2590,40 +1988,31 @@
       <c r="I27" s="5">
         <v>5</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>66</v>
+      <c r="J27" s="7">
+        <v>98.12</v>
+      </c>
+      <c r="K27" s="5">
+        <v>32</v>
       </c>
       <c r="L27" s="7">
-        <v>-187.01</v>
-      </c>
-      <c r="M27" s="5">
-        <v>24</v>
+        <v>5.96</v>
+      </c>
+      <c r="M27" s="7">
+        <v>1.040816326530612</v>
       </c>
       <c r="N27" s="7">
-        <v>18.8</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="O27" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7">
-        <v>1.040816326530612</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>8.285714285714286</v>
-      </c>
-      <c r="R27" s="5">
-        <v>13</v>
-      </c>
-      <c r="S27" s="7">
         <v>1.959183673469388</v>
       </c>
-      <c r="T27" s="5">
+      <c r="Q27" s="5">
         <v>57</v>
       </c>
-      <c r="U27" s="7">
+      <c r="R27" s="7">
         <v>0.59375</v>
       </c>
     </row>
@@ -2635,7 +2024,7 @@
         <v>1000617</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="5">
         <v>330</v>
@@ -2655,40 +2044,31 @@
       <c r="I28" s="5">
         <v>10</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>67</v>
+      <c r="J28" s="7">
+        <v>93.51</v>
+      </c>
+      <c r="K28" s="5">
+        <v>53</v>
       </c>
       <c r="L28" s="7">
-        <v>-226.26</v>
-      </c>
-      <c r="M28" s="5">
-        <v>47</v>
+        <v>6.61</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1.066666666666667</v>
       </c>
       <c r="N28" s="7">
-        <v>20.54</v>
+        <v>9.088888888888889</v>
       </c>
       <c r="O28" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P28" s="7">
-        <v>1.066666666666667</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>9.088888888888889</v>
-      </c>
-      <c r="R28" s="5">
-        <v>12</v>
-      </c>
-      <c r="S28" s="7">
         <v>1.955555555555555</v>
       </c>
-      <c r="T28" s="5">
+      <c r="Q28" s="5">
         <v>50</v>
       </c>
-      <c r="U28" s="7">
+      <c r="R28" s="7">
         <v>0.5681818181818182</v>
       </c>
     </row>
@@ -2700,7 +2080,7 @@
         <v>1011317</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D29" s="5">
         <v>315</v>
@@ -2720,40 +2100,31 @@
       <c r="I29" s="5">
         <v>14</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>68</v>
+      <c r="J29" s="7">
+        <v>73.39</v>
+      </c>
+      <c r="K29" s="5">
+        <v>75</v>
       </c>
       <c r="L29" s="7">
-        <v>-227.96</v>
-      </c>
-      <c r="M29" s="5">
-        <v>62</v>
+        <v>7.85</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.8333333333333334</v>
       </c>
       <c r="N29" s="7">
-        <v>20.94</v>
+        <v>8.547619047619047</v>
       </c>
       <c r="O29" s="5">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="P29" s="7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>8.547619047619047</v>
-      </c>
-      <c r="R29" s="5">
-        <v>13</v>
-      </c>
-      <c r="S29" s="7">
         <v>1.952380952380952</v>
       </c>
-      <c r="T29" s="5">
+      <c r="Q29" s="5">
         <v>43</v>
       </c>
-      <c r="U29" s="7">
+      <c r="R29" s="7">
         <v>0.524390243902439</v>
       </c>
     </row>
@@ -2765,7 +2136,7 @@
         <v>1013583</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" s="5">
         <v>175</v>
@@ -2785,40 +2156,31 @@
       <c r="I30" s="5">
         <v>10</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>69</v>
+      <c r="J30" s="7">
+        <v>72.32</v>
+      </c>
+      <c r="K30" s="5">
+        <v>51</v>
       </c>
       <c r="L30" s="7">
-        <v>-94.65</v>
-      </c>
-      <c r="M30" s="5">
-        <v>46</v>
+        <v>8.66</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1.192307692307692</v>
       </c>
       <c r="N30" s="7">
-        <v>15.75</v>
+        <v>7.615384615384615</v>
       </c>
       <c r="O30" s="5">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7">
-        <v>1.192307692307692</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>7.615384615384615</v>
-      </c>
-      <c r="R30" s="5">
-        <v>13</v>
-      </c>
-      <c r="S30" s="7">
         <v>1.923076923076923</v>
       </c>
-      <c r="T30" s="5">
+      <c r="Q30" s="5">
         <v>25</v>
       </c>
-      <c r="U30" s="7">
+      <c r="R30" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -2830,7 +2192,7 @@
         <v>1017282</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5">
         <v>307</v>
@@ -2850,40 +2212,31 @@
       <c r="I31" s="5">
         <v>13</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>70</v>
+      <c r="J31" s="7">
+        <v>76.91</v>
+      </c>
+      <c r="K31" s="5">
+        <v>56</v>
       </c>
       <c r="L31" s="7">
-        <v>-217.47</v>
-      </c>
-      <c r="M31" s="5">
-        <v>48</v>
+        <v>7.26</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.7857142857142857</v>
       </c>
       <c r="N31" s="7">
-        <v>19.95</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="O31" s="5">
-        <v>33</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>7.142857142857143</v>
-      </c>
-      <c r="R31" s="5">
         <v>9</v>
       </c>
-      <c r="S31" s="5">
+      <c r="P31" s="5">
         <v>2</v>
       </c>
-      <c r="T31" s="5">
+      <c r="Q31" s="5">
         <v>43</v>
       </c>
-      <c r="U31" s="7">
+      <c r="R31" s="7">
         <v>0.4673913043478261</v>
       </c>
     </row>
@@ -2895,7 +2248,7 @@
         <v>1020881</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D32" s="5">
         <v>309</v>
@@ -2915,40 +2268,31 @@
       <c r="I32" s="5">
         <v>11</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>72</v>
+      <c r="J32" s="7">
+        <v>79.89</v>
+      </c>
+      <c r="K32" s="5">
+        <v>75</v>
       </c>
       <c r="L32" s="7">
-        <v>-226.94</v>
-      </c>
-      <c r="M32" s="5">
-        <v>70</v>
+        <v>7.84</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0.627906976744186</v>
       </c>
       <c r="N32" s="7">
-        <v>21.17</v>
+        <v>8.232558139534884</v>
       </c>
       <c r="O32" s="5">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P32" s="7">
-        <v>0.627906976744186</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>8.232558139534884</v>
-      </c>
-      <c r="R32" s="5">
-        <v>11</v>
-      </c>
-      <c r="S32" s="7">
         <v>1.953488372093023</v>
       </c>
-      <c r="T32" s="5">
+      <c r="Q32" s="5">
         <v>43</v>
       </c>
-      <c r="U32" s="7">
+      <c r="R32" s="7">
         <v>0.5119047619047619</v>
       </c>
     </row>
@@ -2960,7 +2304,7 @@
         <v>1028214</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D33" s="5">
         <v>228</v>
@@ -2980,40 +2324,31 @@
       <c r="I33" s="5">
         <v>9</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>74</v>
+      <c r="J33" s="7">
+        <v>93.71</v>
+      </c>
+      <c r="K33" s="5">
+        <v>52</v>
       </c>
       <c r="L33" s="7">
-        <v>-133.22</v>
-      </c>
-      <c r="M33" s="5">
-        <v>45</v>
+        <v>7.33</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.9</v>
       </c>
       <c r="N33" s="7">
-        <v>16.38</v>
+        <v>9.4</v>
       </c>
       <c r="O33" s="5">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="P33" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>9.4</v>
-      </c>
-      <c r="R33" s="5">
-        <v>14</v>
-      </c>
-      <c r="S33" s="7">
         <v>2.05</v>
       </c>
-      <c r="T33" s="5">
+      <c r="Q33" s="5">
         <v>41</v>
       </c>
-      <c r="U33" s="7">
+      <c r="R33" s="7">
         <v>0.5256410256410257</v>
       </c>
     </row>
@@ -3025,7 +2360,7 @@
         <v>1030800</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5">
         <v>277</v>
@@ -3045,40 +2380,31 @@
       <c r="I34" s="5">
         <v>12</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>75</v>
+      <c r="J34" s="7">
+        <v>66.36</v>
+      </c>
+      <c r="K34" s="5">
+        <v>72</v>
       </c>
       <c r="L34" s="7">
-        <v>-196.49</v>
-      </c>
-      <c r="M34" s="5">
-        <v>68</v>
+        <v>8.45</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.9555555555555556</v>
       </c>
       <c r="N34" s="7">
-        <v>19.6</v>
+        <v>8.755555555555556</v>
       </c>
       <c r="O34" s="5">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="P34" s="7">
-        <v>0.9555555555555556</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>8.755555555555556</v>
-      </c>
-      <c r="R34" s="5">
-        <v>13</v>
-      </c>
-      <c r="S34" s="7">
         <v>1.955555555555555</v>
       </c>
-      <c r="T34" s="5">
+      <c r="Q34" s="5">
         <v>45</v>
       </c>
-      <c r="U34" s="7">
+      <c r="R34" s="7">
         <v>0.5113636363636364</v>
       </c>
     </row>
@@ -3090,7 +2416,7 @@
         <v>1035126</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D35" s="5">
         <v>436</v>
@@ -3110,40 +2436,31 @@
       <c r="I35" s="5">
         <v>20</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>77</v>
+      <c r="J35" s="7">
+        <v>78.19</v>
+      </c>
+      <c r="K35" s="5">
+        <v>82</v>
       </c>
       <c r="L35" s="7">
-        <v>-348.74</v>
-      </c>
-      <c r="M35" s="5">
-        <v>80</v>
+        <v>7.26</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.8615384615384616</v>
       </c>
       <c r="N35" s="7">
-        <v>26.61</v>
+        <v>9.830769230769231</v>
       </c>
       <c r="O35" s="5">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="P35" s="7">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>9.830769230769231</v>
-      </c>
-      <c r="R35" s="5">
-        <v>14</v>
-      </c>
-      <c r="S35" s="7">
         <v>1.969230769230769</v>
       </c>
-      <c r="T35" s="5">
+      <c r="Q35" s="5">
         <v>70</v>
       </c>
-      <c r="U35" s="7">
+      <c r="R35" s="7">
         <v>0.546875</v>
       </c>
     </row>
@@ -3155,7 +2472,7 @@
         <v>1127832</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5">
         <v>471</v>
@@ -3175,40 +2492,31 @@
       <c r="I36" s="5">
         <v>12</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>79</v>
+      <c r="J36" s="7">
+        <v>58.05</v>
+      </c>
+      <c r="K36" s="5">
+        <v>118</v>
       </c>
       <c r="L36" s="7">
-        <v>-392.39</v>
-      </c>
-      <c r="M36" s="5">
-        <v>111</v>
+        <v>8.46</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.8666666666666667</v>
       </c>
       <c r="N36" s="7">
-        <v>29.55</v>
+        <v>10.8</v>
       </c>
       <c r="O36" s="5">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="P36" s="7">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>10.8</v>
-      </c>
-      <c r="R36" s="5">
-        <v>15</v>
-      </c>
-      <c r="S36" s="7">
         <v>1.966666666666667</v>
       </c>
-      <c r="T36" s="5">
+      <c r="Q36" s="5">
         <v>63</v>
       </c>
-      <c r="U36" s="7">
+      <c r="R36" s="7">
         <v>0.5338983050847458</v>
       </c>
     </row>
@@ -3220,7 +2528,7 @@
         <v>1150823</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D37" s="5">
         <v>318</v>
@@ -3240,40 +2548,31 @@
       <c r="I37" s="5">
         <v>12</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>81</v>
+      <c r="J37" s="7">
+        <v>76.72</v>
+      </c>
+      <c r="K37" s="5">
+        <v>69</v>
       </c>
       <c r="L37" s="7">
-        <v>-225.59</v>
+        <v>7.67</v>
       </c>
       <c r="M37" s="5">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>21.5</v>
+        <v>10.58536585365854</v>
       </c>
       <c r="O37" s="5">
-        <v>56</v>
-      </c>
-      <c r="P37" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="7">
-        <v>10.58536585365854</v>
-      </c>
-      <c r="R37" s="5">
         <v>17</v>
       </c>
-      <c r="S37" s="7">
+      <c r="P37" s="7">
         <v>1.951219512195122</v>
       </c>
-      <c r="T37" s="5">
+      <c r="Q37" s="5">
         <v>42</v>
       </c>
-      <c r="U37" s="7">
+      <c r="R37" s="7">
         <v>0.525</v>
       </c>
     </row>
@@ -3285,7 +2584,7 @@
         <v>1159224</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5">
         <v>386</v>
@@ -3305,40 +2604,31 @@
       <c r="I38" s="5">
         <v>20</v>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>83</v>
+      <c r="J38" s="7">
+        <v>75.46</v>
+      </c>
+      <c r="K38" s="5">
+        <v>102</v>
       </c>
       <c r="L38" s="7">
-        <v>-315.25</v>
-      </c>
-      <c r="M38" s="5">
-        <v>98</v>
+        <v>7.88</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1.234375</v>
       </c>
       <c r="N38" s="7">
-        <v>25.93</v>
+        <v>13.921875</v>
       </c>
       <c r="O38" s="5">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="P38" s="7">
-        <v>1.234375</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>13.921875</v>
-      </c>
-      <c r="R38" s="5">
-        <v>31</v>
-      </c>
-      <c r="S38" s="7">
         <v>1.96875</v>
       </c>
-      <c r="T38" s="5">
+      <c r="Q38" s="5">
         <v>53</v>
       </c>
-      <c r="U38" s="7">
+      <c r="R38" s="7">
         <v>0.4206349206349206</v>
       </c>
     </row>
@@ -3350,7 +2640,7 @@
         <v>1165367</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D39" s="5">
         <v>457</v>
@@ -3370,40 +2660,31 @@
       <c r="I39" s="5">
         <v>16</v>
       </c>
-      <c r="J39" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>84</v>
+      <c r="J39" s="7">
+        <v>85.93</v>
+      </c>
+      <c r="K39" s="5">
+        <v>99</v>
       </c>
       <c r="L39" s="7">
-        <v>-28.68</v>
-      </c>
-      <c r="M39" s="5">
-        <v>88</v>
+        <v>7.33</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.4666666666666667</v>
       </c>
       <c r="N39" s="7">
-        <v>11.53</v>
+        <v>11.13333333333333</v>
       </c>
       <c r="O39" s="5">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="P39" s="7">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>11.13333333333333</v>
-      </c>
-      <c r="R39" s="5">
-        <v>14</v>
-      </c>
-      <c r="S39" s="7">
         <v>2.333333333333333</v>
       </c>
-      <c r="T39" s="5">
+      <c r="Q39" s="5">
         <v>79</v>
       </c>
-      <c r="U39" s="7">
+      <c r="R39" s="7">
         <v>0.5337837837837838</v>
       </c>
     </row>
@@ -3415,7 +2696,7 @@
         <v>1201791</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D40" s="5">
         <v>444</v>
@@ -3435,40 +2716,31 @@
       <c r="I40" s="5">
         <v>17</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>85</v>
+      <c r="J40" s="7">
+        <v>83.03</v>
+      </c>
+      <c r="K40" s="5">
+        <v>77</v>
       </c>
       <c r="L40" s="7">
-        <v>-127.3</v>
-      </c>
-      <c r="M40" s="5">
-        <v>67</v>
+        <v>7.13</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.9859154929577465</v>
       </c>
       <c r="N40" s="7">
-        <v>16.33</v>
+        <v>10.40845070422535</v>
       </c>
       <c r="O40" s="5">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="P40" s="7">
-        <v>0.9859154929577465</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>10.40845070422535</v>
-      </c>
-      <c r="R40" s="5">
-        <v>18</v>
-      </c>
-      <c r="S40" s="7">
         <v>1.971830985915493</v>
       </c>
-      <c r="T40" s="5">
+      <c r="Q40" s="5">
         <v>70</v>
       </c>
-      <c r="U40" s="7">
+      <c r="R40" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -3480,7 +2752,7 @@
         <v>1235163</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D41" s="5">
         <v>356</v>
@@ -3500,40 +2772,31 @@
       <c r="I41" s="5">
         <v>13</v>
       </c>
-      <c r="J41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>87</v>
+      <c r="J41" s="7">
+        <v>77.57</v>
+      </c>
+      <c r="K41" s="5">
+        <v>78</v>
       </c>
       <c r="L41" s="7">
-        <v>-273.29</v>
-      </c>
-      <c r="M41" s="5">
-        <v>69</v>
+        <v>7.82</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.7708333333333334</v>
       </c>
       <c r="N41" s="7">
-        <v>22.98</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="O41" s="5">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P41" s="7">
-        <v>0.7708333333333334</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>7.833333333333333</v>
-      </c>
-      <c r="R41" s="5">
-        <v>11</v>
-      </c>
-      <c r="S41" s="7">
         <v>1.958333333333333</v>
       </c>
-      <c r="T41" s="5">
+      <c r="Q41" s="5">
         <v>49</v>
       </c>
-      <c r="U41" s="7">
+      <c r="R41" s="7">
         <v>0.5212765957446809</v>
       </c>
     </row>
@@ -3545,7 +2808,7 @@
         <v>1273125</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D42" s="5">
         <v>134</v>
@@ -3565,40 +2828,31 @@
       <c r="I42" s="5">
         <v>6</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>89</v>
+      <c r="J42" s="7">
+        <v>81.33</v>
+      </c>
+      <c r="K42" s="5">
+        <v>41</v>
       </c>
       <c r="L42" s="7">
-        <v>-55.41</v>
-      </c>
-      <c r="M42" s="5">
-        <v>38</v>
+        <v>8.63</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.6086956521739131</v>
       </c>
       <c r="N42" s="7">
-        <v>13.37</v>
+        <v>6.739130434782608</v>
       </c>
       <c r="O42" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P42" s="7">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>6.739130434782608</v>
-      </c>
-      <c r="R42" s="5">
-        <v>10</v>
-      </c>
-      <c r="S42" s="7">
         <v>1.91304347826087</v>
       </c>
-      <c r="T42" s="5">
+      <c r="Q42" s="5">
         <v>21</v>
       </c>
-      <c r="U42" s="7">
+      <c r="R42" s="7">
         <v>0.4772727272727273</v>
       </c>
     </row>
@@ -3610,7 +2864,7 @@
         <v>1280579</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43" s="5">
         <v>334</v>
@@ -3630,40 +2884,31 @@
       <c r="I43" s="5">
         <v>12</v>
       </c>
-      <c r="J43" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>91</v>
+      <c r="J43" s="7">
+        <v>79.55</v>
+      </c>
+      <c r="K43" s="5">
+        <v>69</v>
       </c>
       <c r="L43" s="7">
-        <v>-250.29</v>
-      </c>
-      <c r="M43" s="5">
-        <v>62</v>
+        <v>7.39</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.9838709677419355</v>
       </c>
       <c r="N43" s="7">
-        <v>21.55</v>
+        <v>8.661290322580646</v>
       </c>
       <c r="O43" s="5">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="P43" s="7">
-        <v>0.9838709677419355</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>8.661290322580646</v>
-      </c>
-      <c r="R43" s="5">
-        <v>12</v>
-      </c>
-      <c r="S43" s="7">
         <v>1.967741935483871</v>
       </c>
-      <c r="T43" s="5">
+      <c r="Q43" s="5">
         <v>69</v>
       </c>
-      <c r="U43" s="7">
+      <c r="R43" s="7">
         <v>0.5655737704918032</v>
       </c>
     </row>
@@ -3675,7 +2920,7 @@
         <v>1302106</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5">
         <v>295</v>
@@ -3695,40 +2940,31 @@
       <c r="I44" s="5">
         <v>9</v>
       </c>
-      <c r="J44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>92</v>
+      <c r="J44" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="K44" s="5">
+        <v>47</v>
       </c>
       <c r="L44" s="7">
-        <v>-195.81</v>
-      </c>
-      <c r="M44" s="5">
-        <v>40</v>
+        <v>6.54</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.7647058823529411</v>
       </c>
       <c r="N44" s="7">
-        <v>18.77</v>
+        <v>8.823529411764707</v>
       </c>
       <c r="O44" s="5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="P44" s="7">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="Q44" s="7">
-        <v>8.823529411764707</v>
-      </c>
-      <c r="R44" s="5">
-        <v>14</v>
-      </c>
-      <c r="S44" s="7">
         <v>1.96078431372549</v>
       </c>
-      <c r="T44" s="5">
+      <c r="Q44" s="5">
         <v>59</v>
       </c>
-      <c r="U44" s="7">
+      <c r="R44" s="7">
         <v>0.59</v>
       </c>
     </row>
@@ -3740,7 +2976,7 @@
         <v>1304821</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D45" s="5">
         <v>321</v>
@@ -3760,40 +2996,31 @@
       <c r="I45" s="5">
         <v>13</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>93</v>
+      <c r="J45" s="7">
+        <v>81.25</v>
+      </c>
+      <c r="K45" s="5">
+        <v>84</v>
       </c>
       <c r="L45" s="7">
-        <v>-237.09</v>
-      </c>
-      <c r="M45" s="5">
-        <v>74</v>
+        <v>7.99</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.6086956521739131</v>
       </c>
       <c r="N45" s="7">
-        <v>21.94</v>
+        <v>7.608695652173913</v>
       </c>
       <c r="O45" s="5">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="P45" s="7">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>7.608695652173913</v>
-      </c>
-      <c r="R45" s="5">
-        <v>12</v>
-      </c>
-      <c r="S45" s="7">
         <v>1.956521739130435</v>
       </c>
-      <c r="T45" s="5">
+      <c r="Q45" s="5">
         <v>45</v>
       </c>
-      <c r="U45" s="7">
+      <c r="R45" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -3805,7 +3032,7 @@
         <v>1335119</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D46" s="5">
         <v>340</v>
@@ -3825,40 +3052,31 @@
       <c r="I46" s="5">
         <v>12</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>94</v>
+      <c r="J46" s="7">
+        <v>67.47</v>
+      </c>
+      <c r="K46" s="5">
+        <v>58</v>
       </c>
       <c r="L46" s="7">
-        <v>-256.38</v>
-      </c>
-      <c r="M46" s="5">
-        <v>52</v>
+        <v>7.13</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.6481481481481481</v>
       </c>
       <c r="N46" s="7">
-        <v>21.66</v>
+        <v>8.981481481481481</v>
       </c>
       <c r="O46" s="5">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="P46" s="7">
-        <v>0.6481481481481481</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>8.981481481481481</v>
-      </c>
-      <c r="R46" s="5">
-        <v>13</v>
-      </c>
-      <c r="S46" s="7">
         <v>1.962962962962963</v>
       </c>
-      <c r="T46" s="5">
+      <c r="Q46" s="5">
         <v>53</v>
       </c>
-      <c r="U46" s="7">
+      <c r="R46" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -3870,7 +3088,7 @@
         <v>1342967</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D47" s="5">
         <v>229</v>
@@ -3890,40 +3108,31 @@
       <c r="I47" s="5">
         <v>11</v>
       </c>
-      <c r="J47" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>96</v>
+      <c r="J47" s="7">
+        <v>87.59</v>
+      </c>
+      <c r="K47" s="5">
+        <v>44</v>
       </c>
       <c r="L47" s="7">
-        <v>-137.28</v>
-      </c>
-      <c r="M47" s="5">
-        <v>41</v>
+        <v>7.15</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0.9487179487179487</v>
       </c>
       <c r="N47" s="7">
-        <v>16.54</v>
+        <v>7.641025641025641</v>
       </c>
       <c r="O47" s="5">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P47" s="7">
-        <v>0.9487179487179487</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>7.641025641025641</v>
-      </c>
-      <c r="R47" s="5">
-        <v>11</v>
-      </c>
-      <c r="S47" s="7">
         <v>1.948717948717949</v>
       </c>
-      <c r="T47" s="5">
+      <c r="Q47" s="5">
         <v>38</v>
       </c>
-      <c r="U47" s="7">
+      <c r="R47" s="7">
         <v>0.5</v>
       </c>
     </row>
@@ -3935,7 +3144,7 @@
         <v>98792</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D48" s="5">
         <v>254</v>
@@ -3955,40 +3164,31 @@
       <c r="I48" s="5">
         <v>14</v>
       </c>
-      <c r="J48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>97</v>
+      <c r="J48" s="7">
+        <v>81.52</v>
+      </c>
+      <c r="K48" s="5">
+        <v>52</v>
       </c>
       <c r="L48" s="7">
-        <v>-164.69</v>
-      </c>
-      <c r="M48" s="5">
-        <v>45</v>
+        <v>7.25</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0.9782608695652174</v>
       </c>
       <c r="N48" s="7">
-        <v>17.75</v>
+        <v>9.195652173913043</v>
       </c>
       <c r="O48" s="5">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="P48" s="7">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="Q48" s="7">
-        <v>9.195652173913043</v>
-      </c>
-      <c r="R48" s="5">
-        <v>15</v>
-      </c>
-      <c r="S48" s="7">
         <v>1.956521739130435</v>
       </c>
-      <c r="T48" s="5">
+      <c r="Q48" s="5">
         <v>50</v>
       </c>
-      <c r="U48" s="7">
+      <c r="R48" s="7">
         <v>0.5555555555555556</v>
       </c>
     </row>
@@ -4000,7 +3200,7 @@
         <v>250325</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49" s="5">
         <v>394</v>
@@ -4020,40 +3220,31 @@
       <c r="I49" s="5">
         <v>12</v>
       </c>
-      <c r="J49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>98</v>
+      <c r="J49" s="7">
+        <v>67.03</v>
+      </c>
+      <c r="K49" s="5">
+        <v>81</v>
       </c>
       <c r="L49" s="7">
-        <v>-308.82</v>
-      </c>
-      <c r="M49" s="5">
-        <v>77</v>
+        <v>7.72</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1.092592592592593</v>
       </c>
       <c r="N49" s="7">
-        <v>25.27</v>
+        <v>9.648148148148149</v>
       </c>
       <c r="O49" s="5">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="P49" s="7">
-        <v>1.092592592592593</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>9.648148148148149</v>
-      </c>
-      <c r="R49" s="5">
-        <v>14</v>
-      </c>
-      <c r="S49" s="7">
         <v>1.962962962962963</v>
       </c>
-      <c r="T49" s="5">
+      <c r="Q49" s="5">
         <v>54</v>
       </c>
-      <c r="U49" s="7">
+      <c r="R49" s="7">
         <v>0.5094339622641509</v>
       </c>
     </row>
@@ -4065,7 +3256,7 @@
         <v>584412</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D50" s="5">
         <v>151</v>
@@ -4085,40 +3276,31 @@
       <c r="I50" s="5">
         <v>9</v>
       </c>
-      <c r="J50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>99</v>
+      <c r="J50" s="7">
+        <v>80.41</v>
+      </c>
+      <c r="K50" s="5">
+        <v>34</v>
       </c>
       <c r="L50" s="7">
-        <v>-65.22</v>
-      </c>
-      <c r="M50" s="5">
-        <v>28</v>
+        <v>7.75</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.7407407407407407</v>
       </c>
       <c r="N50" s="7">
-        <v>13.05</v>
+        <v>6.481481481481482</v>
       </c>
       <c r="O50" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="P50" s="7">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>6.481481481481482</v>
-      </c>
-      <c r="R50" s="5">
-        <v>9</v>
-      </c>
-      <c r="S50" s="7">
         <v>1.925925925925926</v>
       </c>
-      <c r="T50" s="5">
+      <c r="Q50" s="5">
         <v>25</v>
       </c>
-      <c r="U50" s="7">
+      <c r="R50" s="7">
         <v>0.4807692307692308</v>
       </c>
     </row>
@@ -4130,7 +3312,7 @@
         <v>920667</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5">
         <v>282</v>
@@ -4150,40 +3332,31 @@
       <c r="I51" s="5">
         <v>15</v>
       </c>
-      <c r="J51" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>101</v>
+      <c r="J51" s="7">
+        <v>82.73</v>
+      </c>
+      <c r="K51" s="5">
+        <v>64</v>
       </c>
       <c r="L51" s="7">
-        <v>-198.52</v>
+        <v>7.35</v>
       </c>
       <c r="M51" s="5">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="N51" s="7">
-        <v>19.5</v>
+        <v>9.155555555555555</v>
       </c>
       <c r="O51" s="5">
-        <v>45</v>
-      </c>
-      <c r="P51" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>9.155555555555555</v>
-      </c>
-      <c r="R51" s="5">
         <v>15</v>
       </c>
-      <c r="S51" s="7">
+      <c r="P51" s="7">
         <v>1.955555555555555</v>
       </c>
-      <c r="T51" s="5">
+      <c r="Q51" s="5">
         <v>48</v>
       </c>
-      <c r="U51" s="7">
+      <c r="R51" s="7">
         <v>0.5454545454545454</v>
       </c>
     </row>
@@ -4195,7 +3368,7 @@
         <v>985545</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D52" s="5">
         <v>308</v>
@@ -4215,40 +3388,31 @@
       <c r="I52" s="5">
         <v>11</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>103</v>
+      <c r="J52" s="7">
+        <v>87.1</v>
+      </c>
+      <c r="K52" s="5">
+        <v>32</v>
       </c>
       <c r="L52" s="7">
-        <v>-51.85</v>
-      </c>
-      <c r="M52" s="5">
-        <v>31</v>
+        <v>6.01</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.9047619047619048</v>
       </c>
       <c r="N52" s="7">
-        <v>11.93</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="O52" s="5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="P52" s="7">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="Q52" s="7">
-        <v>8.714285714285714</v>
-      </c>
-      <c r="R52" s="5">
-        <v>14</v>
-      </c>
-      <c r="S52" s="7">
         <v>1.952380952380952</v>
       </c>
-      <c r="T52" s="5">
+      <c r="Q52" s="5">
         <v>47</v>
       </c>
-      <c r="U52" s="7">
+      <c r="R52" s="7">
         <v>0.573170731707317</v>
       </c>
     </row>
@@ -4260,7 +3424,7 @@
         <v>108089</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D53" s="5">
         <v>293</v>
@@ -4280,40 +3444,31 @@
       <c r="I53" s="5">
         <v>10</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>104</v>
+      <c r="J53" s="7">
+        <v>86.8</v>
+      </c>
+      <c r="K53" s="5">
+        <v>67</v>
       </c>
       <c r="L53" s="7">
-        <v>-196.15</v>
-      </c>
-      <c r="M53" s="5">
-        <v>60</v>
+        <v>7.36</v>
+      </c>
+      <c r="M53" s="7">
+        <v>1.121951219512195</v>
       </c>
       <c r="N53" s="7">
-        <v>19.57</v>
+        <v>8.804878048780488</v>
       </c>
       <c r="O53" s="5">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="P53" s="7">
-        <v>1.121951219512195</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>8.804878048780488</v>
-      </c>
-      <c r="R53" s="5">
-        <v>15</v>
-      </c>
-      <c r="S53" s="7">
         <v>1.951219512195122</v>
       </c>
-      <c r="T53" s="5">
+      <c r="Q53" s="5">
         <v>47</v>
       </c>
-      <c r="U53" s="7">
+      <c r="R53" s="7">
         <v>0.5875</v>
       </c>
     </row>
@@ -4325,7 +3480,7 @@
         <v>250580</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D54" s="5">
         <v>371</v>
@@ -4345,30 +3500,21 @@
       <c r="I54" s="5">
         <v>13</v>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>105</v>
+      <c r="J54" s="7">
+        <v>71.63</v>
+      </c>
+      <c r="K54" s="5">
+        <v>98</v>
       </c>
       <c r="L54" s="7">
-        <v>-289.87</v>
-      </c>
-      <c r="M54" s="5">
-        <v>88</v>
-      </c>
-      <c r="N54" s="7">
-        <v>24.44</v>
-      </c>
-      <c r="O54" s="5">
-        <v>71</v>
-      </c>
+        <v>8.2</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="8"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2">
@@ -4378,7 +3524,7 @@
         <v>258897</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D55" s="5">
         <v>312</v>
@@ -4398,40 +3544,31 @@
       <c r="I55" s="5">
         <v>12</v>
       </c>
-      <c r="J55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>106</v>
+      <c r="J55" s="7">
+        <v>79.7</v>
+      </c>
+      <c r="K55" s="5">
+        <v>62</v>
       </c>
       <c r="L55" s="7">
-        <v>-222.54</v>
-      </c>
-      <c r="M55" s="5">
-        <v>55</v>
+        <v>7.37</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.8333333333333334</v>
       </c>
       <c r="N55" s="7">
-        <v>20.91</v>
+        <v>9.458333333333334</v>
       </c>
       <c r="O55" s="5">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="P55" s="7">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>9.458333333333334</v>
-      </c>
-      <c r="R55" s="5">
-        <v>15</v>
-      </c>
-      <c r="S55" s="7">
         <v>1.958333333333333</v>
       </c>
-      <c r="T55" s="5">
+      <c r="Q55" s="5">
         <v>48</v>
       </c>
-      <c r="U55" s="7">
+      <c r="R55" s="7">
         <v>0.5106382978723404</v>
       </c>
     </row>
@@ -4443,7 +3580,7 @@
         <v>293268</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D56" s="5">
         <v>301</v>
@@ -4463,40 +3600,31 @@
       <c r="I56" s="5">
         <v>11</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>107</v>
+      <c r="J56" s="7">
+        <v>76.73</v>
+      </c>
+      <c r="K56" s="5">
+        <v>78</v>
       </c>
       <c r="L56" s="7">
-        <v>-214.42</v>
-      </c>
-      <c r="M56" s="5">
-        <v>67</v>
+        <v>8.27</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.6304347826086957</v>
       </c>
       <c r="N56" s="7">
-        <v>21.02</v>
+        <v>7.391304347826087</v>
       </c>
       <c r="O56" s="5">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="P56" s="7">
-        <v>0.6304347826086957</v>
-      </c>
-      <c r="Q56" s="7">
-        <v>7.391304347826087</v>
-      </c>
-      <c r="R56" s="5">
-        <v>9</v>
-      </c>
-      <c r="S56" s="7">
         <v>1.956521739130435</v>
       </c>
-      <c r="T56" s="5">
+      <c r="Q56" s="5">
         <v>41</v>
       </c>
-      <c r="U56" s="7">
+      <c r="R56" s="7">
         <v>0.4555555555555555</v>
       </c>
     </row>
@@ -4508,7 +3636,7 @@
         <v>387499</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D57" s="5">
         <v>237</v>
@@ -4528,40 +3656,31 @@
       <c r="I57" s="5">
         <v>9</v>
       </c>
-      <c r="J57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>108</v>
+      <c r="J57" s="7">
+        <v>73.62</v>
+      </c>
+      <c r="K57" s="5">
+        <v>66</v>
       </c>
       <c r="L57" s="7">
-        <v>-159.95</v>
-      </c>
-      <c r="M57" s="5">
-        <v>59</v>
+        <v>8.34</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.7714285714285715</v>
       </c>
       <c r="N57" s="7">
-        <v>17.65</v>
+        <v>7.257142857142857</v>
       </c>
       <c r="O57" s="5">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="P57" s="7">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>7.257142857142857</v>
-      </c>
-      <c r="R57" s="5">
-        <v>9</v>
-      </c>
-      <c r="S57" s="7">
         <v>1.942857142857143</v>
       </c>
-      <c r="T57" s="5">
+      <c r="Q57" s="5">
         <v>38</v>
       </c>
-      <c r="U57" s="7">
+      <c r="R57" s="7">
         <v>0.5588235294117647</v>
       </c>
     </row>
@@ -4573,7 +3692,7 @@
         <v>401099</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D58" s="5">
         <v>410</v>
@@ -4593,40 +3712,31 @@
       <c r="I58" s="5">
         <v>12</v>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L58" s="5">
-        <v>-321</v>
-      </c>
-      <c r="M58" s="5">
-        <v>92</v>
+      <c r="J58" s="7">
+        <v>82.36</v>
+      </c>
+      <c r="K58" s="5">
+        <v>101</v>
+      </c>
+      <c r="L58" s="7">
+        <v>8.12</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.6615384615384615</v>
       </c>
       <c r="N58" s="7">
-        <v>25.99</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="O58" s="5">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="P58" s="7">
-        <v>0.6615384615384615</v>
-      </c>
-      <c r="Q58" s="7">
-        <v>8.615384615384615</v>
-      </c>
-      <c r="R58" s="5">
-        <v>14</v>
-      </c>
-      <c r="S58" s="7">
         <v>1.969230769230769</v>
       </c>
-      <c r="T58" s="5">
+      <c r="Q58" s="5">
         <v>72</v>
       </c>
-      <c r="U58" s="7">
+      <c r="R58" s="7">
         <v>0.5625</v>
       </c>
     </row>
@@ -4638,7 +3748,7 @@
         <v>414977</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D59" s="5">
         <v>399</v>
@@ -4658,40 +3768,31 @@
       <c r="I59" s="5">
         <v>13</v>
       </c>
-      <c r="J59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>110</v>
+      <c r="J59" s="7">
+        <v>75.98</v>
+      </c>
+      <c r="K59" s="5">
+        <v>82</v>
       </c>
       <c r="L59" s="7">
-        <v>-310.85</v>
-      </c>
-      <c r="M59" s="5">
-        <v>64</v>
+        <v>7.65</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0.7758620689655172</v>
       </c>
       <c r="N59" s="7">
-        <v>24.95</v>
+        <v>7.896551724137931</v>
       </c>
       <c r="O59" s="5">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P59" s="7">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>7.896551724137931</v>
-      </c>
-      <c r="R59" s="5">
-        <v>11</v>
-      </c>
-      <c r="S59" s="7">
         <v>1.96551724137931</v>
       </c>
-      <c r="T59" s="5">
+      <c r="Q59" s="5">
         <v>66</v>
       </c>
-      <c r="U59" s="7">
+      <c r="R59" s="7">
         <v>0.5789473684210527</v>
       </c>
     </row>
@@ -4703,7 +3804,7 @@
         <v>452402</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D60" s="5">
         <v>277</v>
@@ -4723,40 +3824,31 @@
       <c r="I60" s="5">
         <v>10</v>
       </c>
-      <c r="J60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>111</v>
+      <c r="J60" s="7">
+        <v>76.68</v>
+      </c>
+      <c r="K60" s="5">
+        <v>63</v>
       </c>
       <c r="L60" s="7">
-        <v>-190.06</v>
-      </c>
-      <c r="M60" s="5">
-        <v>58</v>
+        <v>7.75</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0.8611111111111112</v>
       </c>
       <c r="N60" s="7">
-        <v>19.56</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="O60" s="5">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="P60" s="7">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>7.416666666666667</v>
-      </c>
-      <c r="R60" s="5">
-        <v>12</v>
-      </c>
-      <c r="S60" s="7">
         <v>1.944444444444444</v>
       </c>
-      <c r="T60" s="5">
+      <c r="Q60" s="5">
         <v>36</v>
       </c>
-      <c r="U60" s="7">
+      <c r="R60" s="7">
         <v>0.5142857142857142</v>
       </c>
     </row>
@@ -4768,7 +3860,7 @@
         <v>481709</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D61" s="5">
         <v>293</v>
@@ -4788,40 +3880,31 @@
       <c r="I61" s="5">
         <v>11</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>112</v>
+      <c r="J61" s="7">
+        <v>66.47</v>
+      </c>
+      <c r="K61" s="5">
+        <v>60</v>
       </c>
       <c r="L61" s="7">
-        <v>-214.76</v>
-      </c>
-      <c r="M61" s="5">
-        <v>52</v>
+        <v>7.63</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0.8780487804878049</v>
       </c>
       <c r="N61" s="7">
-        <v>20.03</v>
+        <v>8.24390243902439</v>
       </c>
       <c r="O61" s="5">
+        <v>11</v>
+      </c>
+      <c r="P61" s="7">
+        <v>1.951219512195122</v>
+      </c>
+      <c r="Q61" s="5">
         <v>43</v>
       </c>
-      <c r="P61" s="7">
-        <v>0.8780487804878049</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>8.24390243902439</v>
-      </c>
-      <c r="R61" s="5">
-        <v>11</v>
-      </c>
-      <c r="S61" s="7">
-        <v>1.951219512195122</v>
-      </c>
-      <c r="T61" s="5">
-        <v>43</v>
-      </c>
-      <c r="U61" s="7">
+      <c r="R61" s="7">
         <v>0.5375</v>
       </c>
     </row>
@@ -4833,7 +3916,7 @@
         <v>504729</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D62" s="5">
         <v>396</v>
@@ -4853,40 +3936,31 @@
       <c r="I62" s="5">
         <v>15</v>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>113</v>
+      <c r="J62" s="7">
+        <v>91.11</v>
+      </c>
+      <c r="K62" s="5">
+        <v>76</v>
       </c>
       <c r="L62" s="7">
-        <v>-292.24</v>
-      </c>
-      <c r="M62" s="5">
-        <v>64</v>
+        <v>7.01</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0.9032258064516129</v>
       </c>
       <c r="N62" s="7">
-        <v>24.26</v>
+        <v>8.838709677419354</v>
       </c>
       <c r="O62" s="5">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="P62" s="7">
-        <v>0.9032258064516129</v>
-      </c>
-      <c r="Q62" s="7">
-        <v>8.838709677419354</v>
-      </c>
-      <c r="R62" s="5">
-        <v>14</v>
-      </c>
-      <c r="S62" s="7">
         <v>1.967741935483871</v>
       </c>
-      <c r="T62" s="5">
+      <c r="Q62" s="5">
         <v>57</v>
       </c>
-      <c r="U62" s="7">
+      <c r="R62" s="7">
         <v>0.4672131147540984</v>
       </c>
     </row>
@@ -4898,7 +3972,7 @@
         <v>562823</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D63" s="5">
         <v>130</v>
@@ -4918,40 +3992,31 @@
       <c r="I63" s="5">
         <v>4</v>
       </c>
-      <c r="J63" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>114</v>
+      <c r="J63" s="7">
+        <v>84.34</v>
+      </c>
+      <c r="K63" s="5">
+        <v>31</v>
       </c>
       <c r="L63" s="7">
-        <v>-53.38</v>
-      </c>
-      <c r="M63" s="5">
-        <v>29</v>
+        <v>7.56</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.3125</v>
       </c>
       <c r="N63" s="7">
-        <v>12.56</v>
+        <v>6.0625</v>
       </c>
       <c r="O63" s="5">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P63" s="7">
-        <v>0.3125</v>
-      </c>
-      <c r="Q63" s="7">
-        <v>6.0625</v>
-      </c>
-      <c r="R63" s="5">
-        <v>8</v>
-      </c>
-      <c r="S63" s="7">
         <v>1.875</v>
       </c>
-      <c r="T63" s="5">
+      <c r="Q63" s="5">
         <v>18</v>
       </c>
-      <c r="U63" s="7">
+      <c r="R63" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -4963,7 +4028,7 @@
         <v>636999</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D64" s="5">
         <v>261</v>
@@ -4983,40 +4048,31 @@
       <c r="I64" s="5">
         <v>8</v>
       </c>
-      <c r="J64" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>116</v>
+      <c r="J64" s="7">
+        <v>89.24</v>
+      </c>
+      <c r="K64" s="5">
+        <v>51</v>
       </c>
       <c r="L64" s="7">
-        <v>-168.41</v>
-      </c>
-      <c r="M64" s="5">
-        <v>45</v>
+        <v>7.25</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0.5714285714285714</v>
       </c>
       <c r="N64" s="7">
-        <v>17.93</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="O64" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P64" s="7">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="Q64" s="7">
-        <v>8.571428571428571</v>
-      </c>
-      <c r="R64" s="5">
-        <v>10</v>
-      </c>
-      <c r="S64" s="7">
         <v>2.285714285714286</v>
       </c>
-      <c r="T64" s="5">
+      <c r="Q64" s="5">
         <v>56</v>
       </c>
-      <c r="U64" s="7">
+      <c r="R64" s="7">
         <v>0.5833333333333334</v>
       </c>
     </row>
@@ -5028,7 +4084,7 @@
         <v>778088</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D65" s="5">
         <v>152</v>
@@ -5048,40 +4104,31 @@
       <c r="I65" s="5">
         <v>4</v>
       </c>
-      <c r="J65" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>117</v>
+      <c r="J65" s="7">
+        <v>99.4</v>
+      </c>
+      <c r="K65" s="5">
+        <v>27</v>
       </c>
       <c r="L65" s="7">
-        <v>-56.76</v>
+        <v>6.85</v>
       </c>
       <c r="M65" s="5">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="N65" s="7">
-        <v>12.28</v>
+        <v>6.272727272727272</v>
       </c>
       <c r="O65" s="5">
-        <v>14</v>
-      </c>
-      <c r="P65" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="7">
-        <v>6.272727272727272</v>
-      </c>
-      <c r="R65" s="5">
         <v>8</v>
       </c>
-      <c r="S65" s="7">
+      <c r="P65" s="7">
         <v>1.909090909090909</v>
       </c>
-      <c r="T65" s="5">
+      <c r="Q65" s="5">
         <v>18</v>
       </c>
-      <c r="U65" s="7">
+      <c r="R65" s="7">
         <v>0.5294117647058824</v>
       </c>
     </row>
@@ -5093,7 +4140,7 @@
         <v>791390</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D66" s="5">
         <v>155</v>
@@ -5113,40 +4160,31 @@
       <c r="I66" s="5">
         <v>5</v>
       </c>
-      <c r="J66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>118</v>
+      <c r="J66" s="7">
+        <v>74.52</v>
+      </c>
+      <c r="K66" s="5">
+        <v>39</v>
       </c>
       <c r="L66" s="7">
-        <v>-71.31</v>
+        <v>8.07</v>
       </c>
       <c r="M66" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="N66" s="7">
-        <v>13.89</v>
+        <v>6.545454545454546</v>
       </c>
       <c r="O66" s="5">
-        <v>27</v>
-      </c>
-      <c r="P66" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="7">
-        <v>6.545454545454546</v>
-      </c>
-      <c r="R66" s="5">
         <v>9</v>
       </c>
-      <c r="S66" s="7">
+      <c r="P66" s="7">
         <v>1.909090909090909</v>
       </c>
-      <c r="T66" s="5">
+      <c r="Q66" s="5">
         <v>20</v>
       </c>
-      <c r="U66" s="7">
+      <c r="R66" s="7">
         <v>0.4761904761904762</v>
       </c>
     </row>
@@ -5158,7 +4196,7 @@
         <v>830942</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D67" s="5">
         <v>127</v>
@@ -5178,40 +4216,31 @@
       <c r="I67" s="5">
         <v>5</v>
       </c>
-      <c r="J67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>119</v>
+      <c r="J67" s="7">
+        <v>84.03</v>
+      </c>
+      <c r="K67" s="5">
+        <v>27</v>
       </c>
       <c r="L67" s="7">
-        <v>-50.33</v>
-      </c>
-      <c r="M67" s="5">
-        <v>24</v>
+        <v>7.33</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0.5454545454545454</v>
       </c>
       <c r="N67" s="7">
-        <v>11.69</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="O67" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="P67" s="7">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="Q67" s="7">
-        <v>7.272727272727272</v>
-      </c>
-      <c r="R67" s="5">
-        <v>9</v>
-      </c>
-      <c r="S67" s="7">
         <v>2.090909090909091</v>
       </c>
-      <c r="T67" s="5">
+      <c r="Q67" s="5">
         <v>19</v>
       </c>
-      <c r="U67" s="7">
+      <c r="R67" s="7">
         <v>0.5277777777777778</v>
       </c>
     </row>
@@ -5223,7 +4252,7 @@
         <v>871631</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D68" s="5">
         <v>176</v>
@@ -5243,40 +4272,31 @@
       <c r="I68" s="5">
         <v>7</v>
       </c>
-      <c r="J68" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>120</v>
+      <c r="J68" s="7">
+        <v>83.25</v>
+      </c>
+      <c r="K68" s="5">
+        <v>36</v>
       </c>
       <c r="L68" s="7">
-        <v>-96.01</v>
-      </c>
-      <c r="M68" s="5">
-        <v>31</v>
+        <v>7.13</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0.75</v>
       </c>
       <c r="N68" s="7">
-        <v>13.93</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="O68" s="5">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="P68" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q68" s="7">
-        <v>7.142857142857143</v>
-      </c>
-      <c r="R68" s="5">
-        <v>9</v>
-      </c>
-      <c r="S68" s="7">
         <v>1.928571428571429</v>
       </c>
-      <c r="T68" s="5">
+      <c r="Q68" s="5">
         <v>28</v>
       </c>
-      <c r="U68" s="7">
+      <c r="R68" s="7">
         <v>0.5185185185185185</v>
       </c>
     </row>
@@ -5288,7 +4308,7 @@
         <v>959192</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D69" s="5">
         <v>238</v>
@@ -5308,40 +4328,31 @@
       <c r="I69" s="5">
         <v>8</v>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>122</v>
+      <c r="J69" s="7">
+        <v>88.95</v>
+      </c>
+      <c r="K69" s="5">
+        <v>37</v>
       </c>
       <c r="L69" s="7">
-        <v>-142.02</v>
-      </c>
-      <c r="M69" s="5">
-        <v>32</v>
+        <v>6.7</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0.7073170731707317</v>
       </c>
       <c r="N69" s="7">
-        <v>16.57</v>
+        <v>7.926829268292683</v>
       </c>
       <c r="O69" s="5">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="P69" s="7">
-        <v>0.7073170731707317</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>7.926829268292683</v>
-      </c>
-      <c r="R69" s="5">
-        <v>11</v>
-      </c>
-      <c r="S69" s="7">
         <v>1.951219512195122</v>
       </c>
-      <c r="T69" s="5">
+      <c r="Q69" s="5">
         <v>43</v>
       </c>
-      <c r="U69" s="7">
+      <c r="R69" s="7">
         <v>0.5375</v>
       </c>
     </row>
@@ -5353,7 +4364,7 @@
         <v>1004355</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D70" s="5">
         <v>302</v>
@@ -5373,40 +4384,31 @@
       <c r="I70" s="5">
         <v>15</v>
       </c>
-      <c r="J70" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>123</v>
+      <c r="J70" s="7">
+        <v>64.4</v>
+      </c>
+      <c r="K70" s="5">
+        <v>52</v>
       </c>
       <c r="L70" s="7">
-        <v>-221.87</v>
-      </c>
-      <c r="M70" s="5">
-        <v>48</v>
+        <v>7.29</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0.7631578947368421</v>
       </c>
       <c r="N70" s="7">
-        <v>20.1</v>
+        <v>8.18421052631579</v>
       </c>
       <c r="O70" s="5">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="P70" s="7">
-        <v>0.7631578947368421</v>
-      </c>
-      <c r="Q70" s="7">
-        <v>8.18421052631579</v>
-      </c>
-      <c r="R70" s="5">
-        <v>13</v>
-      </c>
-      <c r="S70" s="7">
         <v>1.947368421052632</v>
       </c>
-      <c r="T70" s="5">
+      <c r="Q70" s="5">
         <v>36</v>
       </c>
-      <c r="U70" s="7">
+      <c r="R70" s="7">
         <v>0.4864864864864865</v>
       </c>
     </row>
@@ -5418,7 +4420,7 @@
         <v>1009747</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D71" s="5">
         <v>263</v>
@@ -5438,40 +4440,31 @@
       <c r="I71" s="5">
         <v>10</v>
       </c>
-      <c r="J71" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>124</v>
+      <c r="J71" s="7">
+        <v>81.74</v>
+      </c>
+      <c r="K71" s="5">
+        <v>37</v>
       </c>
       <c r="L71" s="7">
-        <v>-167.39</v>
+        <v>6.44</v>
       </c>
       <c r="M71" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N71" s="7">
-        <v>17.39</v>
+        <v>9.195652173913043</v>
       </c>
       <c r="O71" s="5">
-        <v>20</v>
-      </c>
-      <c r="P71" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>9.195652173913043</v>
-      </c>
-      <c r="R71" s="5">
         <v>14</v>
       </c>
-      <c r="S71" s="7">
+      <c r="P71" s="7">
         <v>1.956521739130435</v>
       </c>
-      <c r="T71" s="5">
+      <c r="Q71" s="5">
         <v>41</v>
       </c>
-      <c r="U71" s="7">
+      <c r="R71" s="7">
         <v>0.4555555555555555</v>
       </c>
     </row>
@@ -5483,7 +4476,7 @@
         <v>56222</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D72" s="5">
         <v>316</v>
@@ -5503,40 +4496,31 @@
       <c r="I72" s="5">
         <v>13</v>
       </c>
-      <c r="J72" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>125</v>
+      <c r="J72" s="7">
+        <v>82.24</v>
+      </c>
+      <c r="K72" s="5">
+        <v>40</v>
       </c>
       <c r="L72" s="7">
-        <v>-215.77</v>
-      </c>
-      <c r="M72" s="5">
-        <v>34</v>
+        <v>6.62</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0.2</v>
       </c>
       <c r="N72" s="7">
-        <v>20.14</v>
+        <v>4.4</v>
       </c>
       <c r="O72" s="5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="P72" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Q72" s="7">
-        <v>4.4</v>
-      </c>
-      <c r="R72" s="5">
-        <v>5</v>
-      </c>
-      <c r="S72" s="7">
         <v>1.8</v>
       </c>
-      <c r="T72" s="5">
+      <c r="Q72" s="5">
         <v>55</v>
       </c>
-      <c r="U72" s="7">
+      <c r="R72" s="7">
         <v>0.5288461538461539</v>
       </c>
     </row>
@@ -5548,7 +4532,7 @@
         <v>56736</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D73" s="5">
         <v>265</v>
@@ -5568,40 +4552,31 @@
       <c r="I73" s="5">
         <v>9</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>127</v>
+      <c r="J73" s="7">
+        <v>92.47</v>
+      </c>
+      <c r="K73" s="5">
+        <v>57</v>
       </c>
       <c r="L73" s="7">
-        <v>-166.38</v>
+        <v>7.36</v>
       </c>
       <c r="M73" s="5">
-        <v>52</v>
-      </c>
-      <c r="N73" s="7">
-        <v>18.73</v>
+        <v>0</v>
+      </c>
+      <c r="N73" s="5">
+        <v>3</v>
       </c>
       <c r="O73" s="5">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="P73" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q73" s="5">
-        <v>3</v>
-      </c>
-      <c r="R73" s="5">
-        <v>3</v>
-      </c>
-      <c r="S73" s="5">
-        <v>2</v>
-      </c>
-      <c r="T73" s="5">
         <v>40</v>
       </c>
-      <c r="U73" s="7">
+      <c r="R73" s="7">
         <v>0.5714285714285714</v>
       </c>
     </row>
@@ -5613,7 +4588,7 @@
         <v>63040</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D74" s="5">
         <v>375</v>
@@ -5633,40 +4608,31 @@
       <c r="I74" s="5">
         <v>9</v>
       </c>
-      <c r="J74" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>128</v>
+      <c r="J74" s="7">
+        <v>85.35</v>
+      </c>
+      <c r="K74" s="5">
+        <v>61</v>
       </c>
       <c r="L74" s="7">
-        <v>-279.04</v>
-      </c>
-      <c r="M74" s="5">
-        <v>52</v>
+        <v>6.94</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0.9710144927536232</v>
       </c>
       <c r="N74" s="7">
-        <v>23.38</v>
+        <v>12.08695652173913</v>
       </c>
       <c r="O74" s="5">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="P74" s="7">
-        <v>0.9710144927536232</v>
-      </c>
-      <c r="Q74" s="7">
-        <v>12.08695652173913</v>
-      </c>
-      <c r="R74" s="5">
-        <v>20</v>
-      </c>
-      <c r="S74" s="7">
         <v>1.971014492753623</v>
       </c>
-      <c r="T74" s="5">
+      <c r="Q74" s="5">
         <v>67</v>
       </c>
-      <c r="U74" s="7">
+      <c r="R74" s="7">
         <v>0.4926470588235294</v>
       </c>
     </row>
@@ -5678,7 +4644,7 @@
         <v>80920</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D75" s="5">
         <v>279</v>
@@ -5698,40 +4664,31 @@
       <c r="I75" s="5">
         <v>11</v>
       </c>
-      <c r="J75" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>129</v>
+      <c r="J75" s="7">
+        <v>76.42</v>
+      </c>
+      <c r="K75" s="5">
+        <v>51</v>
       </c>
       <c r="L75" s="7">
-        <v>-188.03</v>
-      </c>
-      <c r="M75" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="N75" s="7">
+        <v>7.936170212765957</v>
+      </c>
+      <c r="O75" s="5">
+        <v>12</v>
+      </c>
+      <c r="P75" s="7">
+        <v>1.957446808510638</v>
+      </c>
+      <c r="Q75" s="5">
         <v>48</v>
       </c>
-      <c r="N75" s="7">
-        <v>18.88</v>
-      </c>
-      <c r="O75" s="5">
-        <v>36</v>
-      </c>
-      <c r="P75" s="7">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="Q75" s="7">
-        <v>7.936170212765957</v>
-      </c>
-      <c r="R75" s="5">
-        <v>12</v>
-      </c>
-      <c r="S75" s="7">
-        <v>1.957446808510638</v>
-      </c>
-      <c r="T75" s="5">
-        <v>48</v>
-      </c>
-      <c r="U75" s="7">
+      <c r="R75" s="7">
         <v>0.5217391304347826</v>
       </c>
     </row>
@@ -5743,7 +4700,7 @@
         <v>83310</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D76" s="5">
         <v>317</v>
@@ -5763,40 +4720,31 @@
       <c r="I76" s="5">
         <v>16</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>131</v>
+      <c r="J76" s="7">
+        <v>80.89</v>
+      </c>
+      <c r="K76" s="5">
+        <v>57</v>
       </c>
       <c r="L76" s="7">
-        <v>-76.38</v>
-      </c>
-      <c r="M76" s="5">
-        <v>48</v>
+        <v>7.02</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0.54</v>
       </c>
       <c r="N76" s="7">
-        <v>13.27</v>
+        <v>7.12</v>
       </c>
       <c r="O76" s="5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P76" s="7">
-        <v>0.54</v>
-      </c>
-      <c r="Q76" s="7">
-        <v>7.12</v>
-      </c>
-      <c r="R76" s="5">
-        <v>10</v>
-      </c>
-      <c r="S76" s="7">
         <v>1.96</v>
       </c>
-      <c r="T76" s="5">
+      <c r="Q76" s="5">
         <v>53</v>
       </c>
-      <c r="U76" s="7">
+      <c r="R76" s="7">
         <v>0.5408163265306123</v>
       </c>
     </row>
@@ -5808,7 +4756,7 @@
         <v>89860</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D77" s="5">
         <v>210</v>
@@ -5828,40 +4776,31 @@
       <c r="I77" s="5">
         <v>15</v>
       </c>
-      <c r="J77" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>133</v>
+      <c r="J77" s="7">
+        <v>86.22</v>
+      </c>
+      <c r="K77" s="5">
+        <v>52</v>
       </c>
       <c r="L77" s="7">
-        <v>-122.4</v>
-      </c>
-      <c r="M77" s="5">
-        <v>46</v>
+        <v>7.56</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0.75</v>
       </c>
       <c r="N77" s="7">
-        <v>16.33</v>
+        <v>7.375</v>
       </c>
       <c r="O77" s="5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="P77" s="7">
-        <v>0.75</v>
-      </c>
-      <c r="Q77" s="7">
-        <v>7.375</v>
-      </c>
-      <c r="R77" s="5">
-        <v>10</v>
-      </c>
-      <c r="S77" s="7">
         <v>1.9375</v>
       </c>
-      <c r="T77" s="5">
+      <c r="Q77" s="5">
         <v>33</v>
       </c>
-      <c r="U77" s="7">
+      <c r="R77" s="7">
         <v>0.532258064516129</v>
       </c>
     </row>
@@ -5873,7 +4812,7 @@
         <v>95152</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D78" s="5">
         <v>406</v>
@@ -5893,30 +4832,21 @@
       <c r="I78" s="5">
         <v>17</v>
       </c>
-      <c r="J78" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>135</v>
+      <c r="J78" s="7">
+        <v>84.14</v>
+      </c>
+      <c r="K78" s="5">
+        <v>66</v>
       </c>
       <c r="L78" s="7">
-        <v>-109.54</v>
-      </c>
-      <c r="M78" s="5">
-        <v>59</v>
-      </c>
-      <c r="N78" s="7">
-        <v>14.85</v>
-      </c>
-      <c r="O78" s="5">
-        <v>38</v>
-      </c>
+        <v>6.94</v>
+      </c>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="8"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2">
@@ -5926,7 +4856,7 @@
         <v>95457</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D79" s="5">
         <v>303</v>
@@ -5946,40 +4876,31 @@
       <c r="I79" s="5">
         <v>6</v>
       </c>
-      <c r="J79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>136</v>
+      <c r="J79" s="7">
+        <v>67.93</v>
+      </c>
+      <c r="K79" s="5">
+        <v>76</v>
       </c>
       <c r="L79" s="7">
-        <v>-219.5</v>
-      </c>
-      <c r="M79" s="5">
-        <v>62</v>
+        <v>8.56</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0.8260869565217391</v>
       </c>
       <c r="N79" s="7">
-        <v>20.73</v>
+        <v>8.608695652173912</v>
       </c>
       <c r="O79" s="5">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P79" s="7">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="Q79" s="7">
-        <v>8.608695652173912</v>
-      </c>
-      <c r="R79" s="5">
-        <v>11</v>
-      </c>
-      <c r="S79" s="7">
         <v>1.956521739130435</v>
       </c>
-      <c r="T79" s="5">
+      <c r="Q79" s="5">
         <v>47</v>
       </c>
-      <c r="U79" s="7">
+      <c r="R79" s="7">
         <v>0.5222222222222223</v>
       </c>
     </row>
@@ -5991,7 +4912,7 @@
         <v>1550957</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D80" s="5">
         <v>195</v>
@@ -6011,40 +4932,31 @@
       <c r="I80" s="5">
         <v>4</v>
       </c>
-      <c r="J80" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>137</v>
+      <c r="J80" s="7">
+        <v>85.16</v>
+      </c>
+      <c r="K80" s="5">
+        <v>41</v>
       </c>
       <c r="L80" s="7">
-        <v>-102.77</v>
-      </c>
-      <c r="M80" s="5">
-        <v>42</v>
+        <v>7.16</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0.7407407407407407</v>
       </c>
       <c r="N80" s="7">
-        <v>14.85</v>
+        <v>7.185185185185185</v>
       </c>
       <c r="O80" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="P80" s="7">
-        <v>0.7407407407407407</v>
-      </c>
-      <c r="Q80" s="7">
-        <v>7.185185185185185</v>
-      </c>
-      <c r="R80" s="5">
-        <v>10</v>
-      </c>
-      <c r="S80" s="7">
         <v>1.925925925925926</v>
       </c>
-      <c r="T80" s="5">
+      <c r="Q80" s="5">
         <v>28</v>
       </c>
-      <c r="U80" s="7">
+      <c r="R80" s="7">
         <v>0.5384615384615384</v>
       </c>
     </row>
